--- a/kradata/xlsx/dailyAllTrainDetail_20230604_서울.xlsx
+++ b/kradata/xlsx/dailyAllTrainDetail_20230604_서울.xlsx
@@ -119,6 +119,9 @@
     <t>라온더맨</t>
   </si>
   <si>
+    <t>국6</t>
+  </si>
+  <si>
     <t>18</t>
   </si>
   <si>
@@ -216,9 +219,6 @@
   </si>
   <si>
     <t>금성탈환</t>
-  </si>
-  <si>
-    <t>국6</t>
   </si>
   <si>
     <t>08:08</t>
@@ -2844,7 +2844,7 @@
         <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="F5" t="s">
         <v>14</v>
@@ -2873,25 +2873,25 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F6" t="s">
         <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J6" t="s">
         <v>18</v>
@@ -2908,10 +2908,10 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
@@ -2923,10 +2923,10 @@
         <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J7" t="s">
         <v>18</v>
@@ -2943,10 +2943,10 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E8" t="s">
         <v>29</v>
@@ -2955,13 +2955,13 @@
         <v>14</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J8" t="s">
         <v>18</v>
@@ -2978,25 +2978,25 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="F9" t="s">
         <v>14</v>
       </c>
       <c r="G9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J9" t="s">
         <v>18</v>
@@ -3013,22 +3013,22 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F10" t="s">
         <v>14</v>
       </c>
       <c r="G10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I10" t="s">
         <v>17</v>
@@ -3048,25 +3048,25 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J11" t="s">
         <v>18</v>
@@ -3083,13 +3083,13 @@
         <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E12" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F12" t="s">
         <v>14</v>
@@ -3124,7 +3124,7 @@
         <v>73</v>
       </c>
       <c r="E13" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F13" t="s">
         <v>74</v>
@@ -3159,7 +3159,7 @@
         <v>79</v>
       </c>
       <c r="E14" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F14" t="s">
         <v>80</v>
@@ -3188,7 +3188,7 @@
         <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D15" t="s">
         <v>84</v>
@@ -3206,7 +3206,7 @@
         <v>87</v>
       </c>
       <c r="I15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J15" t="s">
         <v>18</v>
@@ -3241,7 +3241,7 @@
         <v>92</v>
       </c>
       <c r="I16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J16" t="s">
         <v>18</v>
@@ -3264,7 +3264,7 @@
         <v>94</v>
       </c>
       <c r="E17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F17" t="s">
         <v>80</v>
@@ -3290,7 +3290,7 @@
         <v>17.0</v>
       </c>
       <c r="B18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C18" t="s">
         <v>20</v>
@@ -3299,7 +3299,7 @@
         <v>98</v>
       </c>
       <c r="E18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F18" t="s">
         <v>14</v>
@@ -3311,7 +3311,7 @@
         <v>100</v>
       </c>
       <c r="I18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J18" t="s">
         <v>101</v>
@@ -3325,7 +3325,7 @@
         <v>18.0</v>
       </c>
       <c r="B19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C19" t="s">
         <v>102</v>
@@ -3334,7 +3334,7 @@
         <v>103</v>
       </c>
       <c r="E19" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F19" t="s">
         <v>104</v>
@@ -3360,7 +3360,7 @@
         <v>19.0</v>
       </c>
       <c r="B20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C20" t="s">
         <v>107</v>
@@ -3369,7 +3369,7 @@
         <v>108</v>
       </c>
       <c r="E20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F20" t="s">
         <v>14</v>
@@ -3395,7 +3395,7 @@
         <v>20.0</v>
       </c>
       <c r="B21" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C21" t="s">
         <v>111</v>
@@ -3404,7 +3404,7 @@
         <v>112</v>
       </c>
       <c r="E21" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F21" t="s">
         <v>14</v>
@@ -3430,7 +3430,7 @@
         <v>21.0</v>
       </c>
       <c r="B22" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C22" t="s">
         <v>72</v>
@@ -3439,7 +3439,7 @@
         <v>115</v>
       </c>
       <c r="E22" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F22" t="s">
         <v>14</v>
@@ -3451,7 +3451,7 @@
         <v>116</v>
       </c>
       <c r="I22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J22" t="s">
         <v>18</v>
@@ -3465,7 +3465,7 @@
         <v>22.0</v>
       </c>
       <c r="B23" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C23" t="s">
         <v>117</v>
@@ -3474,7 +3474,7 @@
         <v>118</v>
       </c>
       <c r="E23" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F23" t="s">
         <v>119</v>
@@ -3500,7 +3500,7 @@
         <v>23.0</v>
       </c>
       <c r="B24" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C24" t="s">
         <v>27</v>
@@ -3521,7 +3521,7 @@
         <v>113</v>
       </c>
       <c r="I24" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J24" t="s">
         <v>18</v>
@@ -3535,7 +3535,7 @@
         <v>24.0</v>
       </c>
       <c r="B25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C25" t="s">
         <v>124</v>
@@ -3544,7 +3544,7 @@
         <v>125</v>
       </c>
       <c r="E25" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F25" t="s">
         <v>126</v>
@@ -3570,7 +3570,7 @@
         <v>25.0</v>
       </c>
       <c r="B26" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -3579,7 +3579,7 @@
         <v>129</v>
       </c>
       <c r="E26" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F26" t="s">
         <v>14</v>
@@ -3605,7 +3605,7 @@
         <v>26.0</v>
       </c>
       <c r="B27" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C27" t="s">
         <v>132</v>
@@ -3614,7 +3614,7 @@
         <v>133</v>
       </c>
       <c r="E27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F27" t="s">
         <v>14</v>
@@ -3640,10 +3640,10 @@
         <v>27.0</v>
       </c>
       <c r="B28" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D28" t="s">
         <v>135</v>
@@ -3658,7 +3658,7 @@
         <v>136</v>
       </c>
       <c r="H28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I28" t="s">
         <v>17</v>
@@ -3675,7 +3675,7 @@
         <v>28.0</v>
       </c>
       <c r="B29" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C29" t="s">
         <v>88</v>
@@ -3684,7 +3684,7 @@
         <v>137</v>
       </c>
       <c r="E29" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F29" t="s">
         <v>14</v>
@@ -3719,7 +3719,7 @@
         <v>140</v>
       </c>
       <c r="E30" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F30" t="s">
         <v>14</v>
@@ -3754,7 +3754,7 @@
         <v>142</v>
       </c>
       <c r="E31" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F31" t="s">
         <v>14</v>
@@ -3789,7 +3789,7 @@
         <v>145</v>
       </c>
       <c r="E32" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F32" t="s">
         <v>14</v>
@@ -3824,7 +3824,7 @@
         <v>148</v>
       </c>
       <c r="E33" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F33" t="s">
         <v>14</v>
@@ -3853,13 +3853,13 @@
         <v>102</v>
       </c>
       <c r="C34" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D34" t="s">
         <v>151</v>
       </c>
       <c r="E34" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F34" t="s">
         <v>14</v>
@@ -3923,13 +3923,13 @@
         <v>102</v>
       </c>
       <c r="C36" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D36" t="s">
         <v>157</v>
       </c>
       <c r="E36" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F36" t="s">
         <v>14</v>
@@ -3964,7 +3964,7 @@
         <v>160</v>
       </c>
       <c r="E37" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F37" t="s">
         <v>161</v>
@@ -3976,7 +3976,7 @@
         <v>163</v>
       </c>
       <c r="I37" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J37" t="s">
         <v>101</v>
@@ -3999,7 +3999,7 @@
         <v>165</v>
       </c>
       <c r="E38" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F38" t="s">
         <v>14</v>
@@ -4028,13 +4028,13 @@
         <v>102</v>
       </c>
       <c r="C39" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D39" t="s">
         <v>167</v>
       </c>
       <c r="E39" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F39" t="s">
         <v>14</v>
@@ -4098,13 +4098,13 @@
         <v>102</v>
       </c>
       <c r="C41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D41" t="s">
         <v>173</v>
       </c>
       <c r="E41" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F41" t="s">
         <v>14</v>
@@ -4133,13 +4133,13 @@
         <v>174</v>
       </c>
       <c r="C42" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D42" t="s">
         <v>175</v>
       </c>
       <c r="E42" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F42" t="s">
         <v>14</v>
@@ -4174,7 +4174,7 @@
         <v>179</v>
       </c>
       <c r="E43" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F43" t="s">
         <v>14</v>
@@ -4183,7 +4183,7 @@
         <v>87</v>
       </c>
       <c r="H43" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I43" t="s">
         <v>131</v>
@@ -4221,7 +4221,7 @@
         <v>183</v>
       </c>
       <c r="I44" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J44" t="s">
         <v>18</v>
@@ -4244,7 +4244,7 @@
         <v>184</v>
       </c>
       <c r="E45" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F45" t="s">
         <v>14</v>
@@ -4279,10 +4279,10 @@
         <v>188</v>
       </c>
       <c r="E46" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F46" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G46" t="s">
         <v>182</v>
@@ -4291,7 +4291,7 @@
         <v>96</v>
       </c>
       <c r="I46" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J46" t="s">
         <v>18</v>
@@ -4343,13 +4343,13 @@
         <v>174</v>
       </c>
       <c r="C48" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D48" t="s">
         <v>192</v>
       </c>
       <c r="E48" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F48" t="s">
         <v>14</v>
@@ -4384,10 +4384,10 @@
         <v>194</v>
       </c>
       <c r="E49" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F49" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G49" t="s">
         <v>195</v>
@@ -4413,13 +4413,13 @@
         <v>174</v>
       </c>
       <c r="C50" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D50" t="s">
         <v>196</v>
       </c>
       <c r="E50" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F50" t="s">
         <v>14</v>
@@ -4448,13 +4448,13 @@
         <v>174</v>
       </c>
       <c r="C51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D51" t="s">
         <v>198</v>
       </c>
       <c r="E51" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F51" t="s">
         <v>14</v>
@@ -4466,7 +4466,7 @@
         <v>199</v>
       </c>
       <c r="I51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J51" t="s">
         <v>200</v>
@@ -4553,13 +4553,13 @@
         <v>174</v>
       </c>
       <c r="C54" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D54" t="s">
         <v>205</v>
       </c>
       <c r="E54" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F54" t="s">
         <v>14</v>
@@ -4571,7 +4571,7 @@
         <v>207</v>
       </c>
       <c r="I54" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J54" t="s">
         <v>18</v>
@@ -4594,7 +4594,7 @@
         <v>208</v>
       </c>
       <c r="E55" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F55" t="s">
         <v>14</v>
@@ -4606,7 +4606,7 @@
         <v>210</v>
       </c>
       <c r="I55" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J55" t="s">
         <v>18</v>
@@ -4629,7 +4629,7 @@
         <v>211</v>
       </c>
       <c r="E56" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F56" t="s">
         <v>14</v>
@@ -4641,7 +4641,7 @@
         <v>123</v>
       </c>
       <c r="I56" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J56" t="s">
         <v>18</v>
@@ -4658,13 +4658,13 @@
         <v>107</v>
       </c>
       <c r="C57" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D57" t="s">
         <v>212</v>
       </c>
       <c r="E57" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F57" t="s">
         <v>14</v>
@@ -4699,7 +4699,7 @@
         <v>214</v>
       </c>
       <c r="E58" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F58" t="s">
         <v>14</v>
@@ -4708,7 +4708,7 @@
         <v>169</v>
       </c>
       <c r="H58" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I58" t="s">
         <v>131</v>
@@ -4769,7 +4769,7 @@
         <v>217</v>
       </c>
       <c r="E60" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F60" t="s">
         <v>14</v>
@@ -4804,7 +4804,7 @@
         <v>219</v>
       </c>
       <c r="E61" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="F61" t="s">
         <v>14</v>
@@ -4813,7 +4813,7 @@
         <v>220</v>
       </c>
       <c r="H61" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I61" t="s">
         <v>25</v>
@@ -4833,7 +4833,7 @@
         <v>107</v>
       </c>
       <c r="C62" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D62" t="s">
         <v>221</v>
@@ -4874,7 +4874,7 @@
         <v>226</v>
       </c>
       <c r="E63" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F63" t="s">
         <v>227</v>
@@ -4886,7 +4886,7 @@
         <v>224</v>
       </c>
       <c r="I63" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J63" t="s">
         <v>101</v>
@@ -4909,7 +4909,7 @@
         <v>230</v>
       </c>
       <c r="E64" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F64" t="s">
         <v>14</v>
@@ -4921,7 +4921,7 @@
         <v>231</v>
       </c>
       <c r="I64" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J64" t="s">
         <v>18</v>
@@ -4944,7 +4944,7 @@
         <v>232</v>
       </c>
       <c r="E65" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F65" t="s">
         <v>14</v>
@@ -4956,7 +4956,7 @@
         <v>128</v>
       </c>
       <c r="I65" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J65" t="s">
         <v>18</v>
@@ -4979,7 +4979,7 @@
         <v>234</v>
       </c>
       <c r="E66" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F66" t="s">
         <v>14</v>
@@ -5008,13 +5008,13 @@
         <v>107</v>
       </c>
       <c r="C67" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D67" t="s">
         <v>236</v>
       </c>
       <c r="E67" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F67" t="s">
         <v>14</v>
@@ -5049,7 +5049,7 @@
         <v>238</v>
       </c>
       <c r="E68" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F68" t="s">
         <v>14</v>
@@ -5093,7 +5093,7 @@
         <v>220</v>
       </c>
       <c r="H69" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I69" t="s">
         <v>25</v>
@@ -5119,7 +5119,7 @@
         <v>243</v>
       </c>
       <c r="E70" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F70" t="s">
         <v>14</v>
@@ -5154,7 +5154,7 @@
         <v>246</v>
       </c>
       <c r="E71" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F71" t="s">
         <v>14</v>
@@ -5183,13 +5183,13 @@
         <v>111</v>
       </c>
       <c r="C72" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D72" t="s">
         <v>247</v>
       </c>
       <c r="E72" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F72" t="s">
         <v>14</v>
@@ -5224,7 +5224,7 @@
         <v>248</v>
       </c>
       <c r="E73" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F73" t="s">
         <v>85</v>
@@ -5236,7 +5236,7 @@
         <v>249</v>
       </c>
       <c r="I73" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J73" t="s">
         <v>18</v>
@@ -5259,7 +5259,7 @@
         <v>250</v>
       </c>
       <c r="E74" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F74" t="s">
         <v>251</v>
@@ -5294,7 +5294,7 @@
         <v>253</v>
       </c>
       <c r="E75" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F75" t="s">
         <v>14</v>
@@ -5306,7 +5306,7 @@
         <v>254</v>
       </c>
       <c r="I75" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J75" t="s">
         <v>101</v>
@@ -5329,7 +5329,7 @@
         <v>255</v>
       </c>
       <c r="E76" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F76" t="s">
         <v>14</v>
@@ -5341,7 +5341,7 @@
         <v>15</v>
       </c>
       <c r="I76" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J76" t="s">
         <v>101</v>
@@ -5364,7 +5364,7 @@
         <v>257</v>
       </c>
       <c r="E77" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F77" t="s">
         <v>14</v>
@@ -5376,7 +5376,7 @@
         <v>128</v>
       </c>
       <c r="I77" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J77" t="s">
         <v>101</v>
@@ -5399,7 +5399,7 @@
         <v>258</v>
       </c>
       <c r="E78" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F78" t="s">
         <v>14</v>
@@ -5434,7 +5434,7 @@
         <v>261</v>
       </c>
       <c r="E79" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F79" t="s">
         <v>14</v>
@@ -5446,7 +5446,7 @@
         <v>136</v>
       </c>
       <c r="I79" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J79" t="s">
         <v>101</v>
@@ -5504,7 +5504,7 @@
         <v>266</v>
       </c>
       <c r="E81" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F81" t="s">
         <v>14</v>
@@ -5609,7 +5609,7 @@
         <v>271</v>
       </c>
       <c r="E84" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F84" t="s">
         <v>161</v>
@@ -5621,7 +5621,7 @@
         <v>272</v>
       </c>
       <c r="I84" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J84" t="s">
         <v>273</v>
@@ -5679,7 +5679,7 @@
         <v>276</v>
       </c>
       <c r="E86" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F86" t="s">
         <v>14</v>
@@ -5691,7 +5691,7 @@
         <v>162</v>
       </c>
       <c r="I86" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J86" t="s">
         <v>18</v>
@@ -5708,13 +5708,13 @@
         <v>72</v>
       </c>
       <c r="C87" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D87" t="s">
         <v>277</v>
       </c>
       <c r="E87" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F87" t="s">
         <v>278</v>
@@ -5743,7 +5743,7 @@
         <v>72</v>
       </c>
       <c r="C88" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D88" t="s">
         <v>280</v>
@@ -5784,7 +5784,7 @@
         <v>283</v>
       </c>
       <c r="E89" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F89" t="s">
         <v>14</v>
@@ -5813,7 +5813,7 @@
         <v>72</v>
       </c>
       <c r="C90" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D90" t="s">
         <v>286</v>
@@ -5971,7 +5971,7 @@
         <v>128</v>
       </c>
       <c r="I94" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J94" t="s">
         <v>101</v>
@@ -5988,13 +5988,13 @@
         <v>117</v>
       </c>
       <c r="C95" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D95" t="s">
         <v>296</v>
       </c>
       <c r="E95" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F95" t="s">
         <v>14</v>
@@ -6029,7 +6029,7 @@
         <v>298</v>
       </c>
       <c r="E96" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F96" t="s">
         <v>299</v>
@@ -6041,7 +6041,7 @@
         <v>300</v>
       </c>
       <c r="I96" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J96" t="s">
         <v>301</v>
@@ -6076,7 +6076,7 @@
         <v>128</v>
       </c>
       <c r="I97" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J97" t="s">
         <v>18</v>
@@ -6099,7 +6099,7 @@
         <v>304</v>
       </c>
       <c r="E98" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F98" t="s">
         <v>14</v>
@@ -6146,7 +6146,7 @@
         <v>300</v>
       </c>
       <c r="I99" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J99" t="s">
         <v>301</v>
@@ -6169,7 +6169,7 @@
         <v>307</v>
       </c>
       <c r="E100" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F100" t="s">
         <v>14</v>
@@ -6181,7 +6181,7 @@
         <v>309</v>
       </c>
       <c r="I100" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J100" t="s">
         <v>18</v>
@@ -6251,7 +6251,7 @@
         <v>138</v>
       </c>
       <c r="I102" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J102" t="s">
         <v>101</v>
@@ -6274,7 +6274,7 @@
         <v>312</v>
       </c>
       <c r="E103" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F103" t="s">
         <v>14</v>
@@ -6309,7 +6309,7 @@
         <v>313</v>
       </c>
       <c r="E104" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F104" t="s">
         <v>14</v>
@@ -6321,7 +6321,7 @@
         <v>96</v>
       </c>
       <c r="I104" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J104" t="s">
         <v>101</v>
@@ -6344,7 +6344,7 @@
         <v>315</v>
       </c>
       <c r="E105" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F105" t="s">
         <v>14</v>
@@ -6379,7 +6379,7 @@
         <v>316</v>
       </c>
       <c r="E106" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F106" t="s">
         <v>317</v>
@@ -6391,7 +6391,7 @@
         <v>300</v>
       </c>
       <c r="I106" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J106" t="s">
         <v>301</v>
@@ -6414,7 +6414,7 @@
         <v>318</v>
       </c>
       <c r="E107" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F107" t="s">
         <v>14</v>
@@ -6423,10 +6423,10 @@
         <v>284</v>
       </c>
       <c r="H107" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I107" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J107" t="s">
         <v>101</v>
@@ -6443,13 +6443,13 @@
         <v>117</v>
       </c>
       <c r="C108" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D108" t="s">
         <v>319</v>
       </c>
       <c r="E108" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F108" t="s">
         <v>161</v>
@@ -6461,7 +6461,7 @@
         <v>138</v>
       </c>
       <c r="I108" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J108" t="s">
         <v>18</v>
@@ -6484,7 +6484,7 @@
         <v>320</v>
       </c>
       <c r="E109" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F109" t="s">
         <v>14</v>
@@ -6513,7 +6513,7 @@
         <v>27</v>
       </c>
       <c r="C110" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D110" t="s">
         <v>323</v>
@@ -6531,7 +6531,7 @@
         <v>325</v>
       </c>
       <c r="I110" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J110" t="s">
         <v>101</v>
@@ -6566,7 +6566,7 @@
         <v>150</v>
       </c>
       <c r="I111" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J111" t="s">
         <v>18</v>
@@ -6589,19 +6589,19 @@
         <v>329</v>
       </c>
       <c r="E112" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F112" t="s">
         <v>227</v>
       </c>
       <c r="G112" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H112" t="s">
         <v>158</v>
       </c>
       <c r="I112" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J112" t="s">
         <v>101</v>
@@ -6636,7 +6636,7 @@
         <v>143</v>
       </c>
       <c r="I113" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J113" t="s">
         <v>18</v>
@@ -6659,7 +6659,7 @@
         <v>332</v>
       </c>
       <c r="E114" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F114" t="s">
         <v>227</v>
@@ -6694,7 +6694,7 @@
         <v>334</v>
       </c>
       <c r="E115" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F115" t="s">
         <v>335</v>
@@ -6706,7 +6706,7 @@
         <v>336</v>
       </c>
       <c r="I115" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J115" t="s">
         <v>18</v>
@@ -6729,7 +6729,7 @@
         <v>337</v>
       </c>
       <c r="E116" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F116" t="s">
         <v>104</v>
@@ -6776,7 +6776,7 @@
         <v>147</v>
       </c>
       <c r="I117" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J117" t="s">
         <v>18</v>
@@ -6811,7 +6811,7 @@
         <v>150</v>
       </c>
       <c r="I118" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J118" t="s">
         <v>18</v>
@@ -6834,7 +6834,7 @@
         <v>341</v>
       </c>
       <c r="E119" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F119" t="s">
         <v>327</v>
@@ -6846,7 +6846,7 @@
         <v>336</v>
       </c>
       <c r="I119" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J119" t="s">
         <v>18</v>
@@ -6898,13 +6898,13 @@
         <v>27</v>
       </c>
       <c r="C121" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D121" t="s">
         <v>343</v>
       </c>
       <c r="E121" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F121" t="s">
         <v>203</v>
@@ -6916,7 +6916,7 @@
         <v>143</v>
       </c>
       <c r="I121" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J121" t="s">
         <v>18</v>
@@ -6939,7 +6939,7 @@
         <v>344</v>
       </c>
       <c r="E122" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F122" t="s">
         <v>327</v>
@@ -6974,7 +6974,7 @@
         <v>346</v>
       </c>
       <c r="E123" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F123" t="s">
         <v>14</v>
@@ -7009,7 +7009,7 @@
         <v>347</v>
       </c>
       <c r="E124" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F124" t="s">
         <v>14</v>
@@ -7018,7 +7018,7 @@
         <v>95</v>
       </c>
       <c r="H124" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I124" t="s">
         <v>32</v>
@@ -7053,10 +7053,10 @@
         <v>15</v>
       </c>
       <c r="H125" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I125" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J125" t="s">
         <v>18</v>
@@ -7079,7 +7079,7 @@
         <v>349</v>
       </c>
       <c r="E126" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F126" t="s">
         <v>14</v>
@@ -7114,7 +7114,7 @@
         <v>351</v>
       </c>
       <c r="E127" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F127" t="s">
         <v>14</v>
@@ -7123,10 +7123,10 @@
         <v>15</v>
       </c>
       <c r="H127" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I127" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J127" t="s">
         <v>273</v>
@@ -7184,7 +7184,7 @@
         <v>355</v>
       </c>
       <c r="E129" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F129" t="s">
         <v>104</v>
@@ -7219,13 +7219,13 @@
         <v>357</v>
       </c>
       <c r="E130" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F130" t="s">
         <v>104</v>
       </c>
       <c r="G130" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H130" t="s">
         <v>356</v>
@@ -7254,7 +7254,7 @@
         <v>358</v>
       </c>
       <c r="E131" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F131" t="s">
         <v>14</v>
@@ -7289,7 +7289,7 @@
         <v>359</v>
       </c>
       <c r="E132" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F132" t="s">
         <v>14</v>
@@ -7324,7 +7324,7 @@
         <v>360</v>
       </c>
       <c r="E133" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F133" t="s">
         <v>14</v>
@@ -7336,7 +7336,7 @@
         <v>134</v>
       </c>
       <c r="I133" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J133" t="s">
         <v>18</v>
@@ -7371,7 +7371,7 @@
         <v>166</v>
       </c>
       <c r="I134" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J134" t="s">
         <v>18</v>
@@ -7394,7 +7394,7 @@
         <v>362</v>
       </c>
       <c r="E135" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F135" t="s">
         <v>85</v>
@@ -7464,7 +7464,7 @@
         <v>365</v>
       </c>
       <c r="E137" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F137" t="s">
         <v>85</v>
@@ -7476,7 +7476,7 @@
         <v>367</v>
       </c>
       <c r="I137" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J137" t="s">
         <v>77</v>
@@ -7499,7 +7499,7 @@
         <v>368</v>
       </c>
       <c r="E138" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F138" t="s">
         <v>85</v>
@@ -7511,7 +7511,7 @@
         <v>143</v>
       </c>
       <c r="I138" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J138" t="s">
         <v>18</v>
@@ -7569,7 +7569,7 @@
         <v>370</v>
       </c>
       <c r="E140" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F140" t="s">
         <v>14</v>
@@ -7604,7 +7604,7 @@
         <v>371</v>
       </c>
       <c r="E141" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F141" t="s">
         <v>14</v>
@@ -7616,7 +7616,7 @@
         <v>130</v>
       </c>
       <c r="I141" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J141" t="s">
         <v>18</v>
@@ -7639,7 +7639,7 @@
         <v>372</v>
       </c>
       <c r="E142" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F142" t="s">
         <v>14</v>
@@ -7651,7 +7651,7 @@
         <v>279</v>
       </c>
       <c r="I142" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J142" t="s">
         <v>18</v>
@@ -7674,7 +7674,7 @@
         <v>373</v>
       </c>
       <c r="E143" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F143" t="s">
         <v>374</v>
@@ -7683,7 +7683,7 @@
         <v>75</v>
       </c>
       <c r="H143" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I143" t="s">
         <v>375</v>
@@ -7703,13 +7703,13 @@
         <v>33</v>
       </c>
       <c r="C144" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D144" t="s">
         <v>376</v>
       </c>
       <c r="E144" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F144" t="s">
         <v>251</v>
@@ -7721,7 +7721,7 @@
         <v>350</v>
       </c>
       <c r="I144" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J144" t="s">
         <v>18</v>
@@ -7744,7 +7744,7 @@
         <v>377</v>
       </c>
       <c r="E145" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="F145" t="s">
         <v>378</v>
@@ -7779,7 +7779,7 @@
         <v>379</v>
       </c>
       <c r="E146" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F146" t="s">
         <v>327</v>
@@ -7814,19 +7814,19 @@
         <v>380</v>
       </c>
       <c r="E147" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F147" t="s">
         <v>251</v>
       </c>
       <c r="G147" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H147" t="s">
         <v>285</v>
       </c>
       <c r="I147" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J147" t="s">
         <v>101</v>
@@ -7849,7 +7849,7 @@
         <v>381</v>
       </c>
       <c r="E148" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F148" t="s">
         <v>251</v>
@@ -7884,7 +7884,7 @@
         <v>382</v>
       </c>
       <c r="E149" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F149" t="s">
         <v>251</v>
@@ -7896,7 +7896,7 @@
         <v>284</v>
       </c>
       <c r="I149" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J149" t="s">
         <v>101</v>
@@ -7919,7 +7919,7 @@
         <v>383</v>
       </c>
       <c r="E150" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F150" t="s">
         <v>14</v>
@@ -7983,13 +7983,13 @@
         <v>33</v>
       </c>
       <c r="C152" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D152" t="s">
         <v>387</v>
       </c>
       <c r="E152" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F152" t="s">
         <v>388</v>
@@ -8001,7 +8001,7 @@
         <v>150</v>
       </c>
       <c r="I152" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J152" t="s">
         <v>77</v>
@@ -8024,13 +8024,13 @@
         <v>389</v>
       </c>
       <c r="E153" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F153" t="s">
         <v>378</v>
       </c>
       <c r="G153" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H153" t="s">
         <v>284</v>
@@ -8094,7 +8094,7 @@
         <v>391</v>
       </c>
       <c r="E155" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F155" t="s">
         <v>251</v>
@@ -8123,7 +8123,7 @@
         <v>187</v>
       </c>
       <c r="C156" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D156" t="s">
         <v>392</v>
@@ -8211,7 +8211,7 @@
         <v>292</v>
       </c>
       <c r="I158" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J158" t="s">
         <v>101</v>
@@ -8234,7 +8234,7 @@
         <v>397</v>
       </c>
       <c r="E159" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F159" t="s">
         <v>14</v>
@@ -8269,7 +8269,7 @@
         <v>398</v>
       </c>
       <c r="E160" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F160" t="s">
         <v>251</v>
@@ -8281,7 +8281,7 @@
         <v>399</v>
       </c>
       <c r="I160" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J160" t="s">
         <v>18</v>
@@ -8304,7 +8304,7 @@
         <v>400</v>
       </c>
       <c r="E161" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F161" t="s">
         <v>14</v>
@@ -8339,7 +8339,7 @@
         <v>401</v>
       </c>
       <c r="E162" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F162" t="s">
         <v>14</v>
@@ -8368,13 +8368,13 @@
         <v>187</v>
       </c>
       <c r="C163" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D163" t="s">
         <v>402</v>
       </c>
       <c r="E163" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F163" t="s">
         <v>14</v>
@@ -8403,13 +8403,13 @@
         <v>187</v>
       </c>
       <c r="C164" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D164" t="s">
         <v>404</v>
       </c>
       <c r="E164" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F164" t="s">
         <v>14</v>
@@ -8421,7 +8421,7 @@
         <v>100</v>
       </c>
       <c r="I164" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J164" t="s">
         <v>18</v>
@@ -8444,7 +8444,7 @@
         <v>405</v>
       </c>
       <c r="E165" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F165" t="s">
         <v>14</v>
@@ -8456,7 +8456,7 @@
         <v>100</v>
       </c>
       <c r="I165" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J165" t="s">
         <v>18</v>
@@ -8473,13 +8473,13 @@
         <v>187</v>
       </c>
       <c r="C166" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D166" t="s">
         <v>406</v>
       </c>
       <c r="E166" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F166" t="s">
         <v>14</v>
@@ -8514,7 +8514,7 @@
         <v>407</v>
       </c>
       <c r="E167" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F167" t="s">
         <v>80</v>
@@ -8584,7 +8584,7 @@
         <v>411</v>
       </c>
       <c r="E169" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F169" t="s">
         <v>14</v>
@@ -8619,7 +8619,7 @@
         <v>412</v>
       </c>
       <c r="E170" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F170" t="s">
         <v>14</v>
@@ -8666,7 +8666,7 @@
         <v>336</v>
       </c>
       <c r="I171" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J171" t="s">
         <v>18</v>
@@ -8689,7 +8689,7 @@
         <v>415</v>
       </c>
       <c r="E172" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F172" t="s">
         <v>80</v>
@@ -8724,7 +8724,7 @@
         <v>416</v>
       </c>
       <c r="E173" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F173" t="s">
         <v>14</v>
@@ -8736,7 +8736,7 @@
         <v>31</v>
       </c>
       <c r="I173" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J173" t="s">
         <v>101</v>
@@ -8829,7 +8829,7 @@
         <v>420</v>
       </c>
       <c r="E176" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F176" t="s">
         <v>14</v>
@@ -8864,7 +8864,7 @@
         <v>421</v>
       </c>
       <c r="E177" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F177" t="s">
         <v>14</v>
@@ -8893,7 +8893,7 @@
         <v>132</v>
       </c>
       <c r="C178" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D178" t="s">
         <v>422</v>
@@ -8934,7 +8934,7 @@
         <v>423</v>
       </c>
       <c r="E179" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F179" t="s">
         <v>14</v>
@@ -8946,7 +8946,7 @@
         <v>425</v>
       </c>
       <c r="I179" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J179" t="s">
         <v>18</v>
@@ -8969,7 +8969,7 @@
         <v>426</v>
       </c>
       <c r="E180" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F180" t="s">
         <v>14</v>
@@ -9039,7 +9039,7 @@
         <v>430</v>
       </c>
       <c r="E182" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F182" t="s">
         <v>431</v>
@@ -9051,7 +9051,7 @@
         <v>231</v>
       </c>
       <c r="I182" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J182" t="s">
         <v>18</v>
@@ -9086,7 +9086,7 @@
         <v>177</v>
       </c>
       <c r="I183" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J183" t="s">
         <v>101</v>
@@ -9144,7 +9144,7 @@
         <v>435</v>
       </c>
       <c r="E185" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F185" t="s">
         <v>14</v>
@@ -9156,7 +9156,7 @@
         <v>367</v>
       </c>
       <c r="I185" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J185" t="s">
         <v>101</v>
@@ -9188,7 +9188,7 @@
         <v>256</v>
       </c>
       <c r="H186" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I186" t="s">
         <v>141</v>
@@ -9249,7 +9249,7 @@
         <v>438</v>
       </c>
       <c r="E188" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F188" t="s">
         <v>428</v>
@@ -9290,13 +9290,13 @@
         <v>14</v>
       </c>
       <c r="G189" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H189" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I189" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J189" t="s">
         <v>18</v>
@@ -9313,13 +9313,13 @@
         <v>88</v>
       </c>
       <c r="C190" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D190" t="s">
         <v>441</v>
       </c>
       <c r="E190" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F190" t="s">
         <v>14</v>
@@ -9331,7 +9331,7 @@
         <v>309</v>
       </c>
       <c r="I190" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J190" t="s">
         <v>101</v>
@@ -9389,7 +9389,7 @@
         <v>445</v>
       </c>
       <c r="E192" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F192" t="s">
         <v>14</v>
@@ -9424,7 +9424,7 @@
         <v>447</v>
       </c>
       <c r="E193" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F193" t="s">
         <v>443</v>
@@ -9436,7 +9436,7 @@
         <v>300</v>
       </c>
       <c r="I193" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J193" t="s">
         <v>273</v>
@@ -9459,7 +9459,7 @@
         <v>448</v>
       </c>
       <c r="E194" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F194" t="s">
         <v>443</v>
@@ -9488,7 +9488,7 @@
         <v>88</v>
       </c>
       <c r="C195" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D195" t="s">
         <v>450</v>
@@ -9506,7 +9506,7 @@
         <v>70</v>
       </c>
       <c r="I195" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J195" t="s">
         <v>18</v>
@@ -9529,7 +9529,7 @@
         <v>452</v>
       </c>
       <c r="E196" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F196" t="s">
         <v>443</v>
@@ -9558,7 +9558,7 @@
         <v>88</v>
       </c>
       <c r="C197" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D197" t="s">
         <v>453</v>
@@ -9593,7 +9593,7 @@
         <v>88</v>
       </c>
       <c r="C198" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D198" t="s">
         <v>454</v>
@@ -9611,7 +9611,7 @@
         <v>70</v>
       </c>
       <c r="I198" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J198" t="s">
         <v>18</v>
@@ -9634,7 +9634,7 @@
         <v>455</v>
       </c>
       <c r="E199" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F199" t="s">
         <v>14</v>
@@ -9669,7 +9669,7 @@
         <v>456</v>
       </c>
       <c r="E200" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F200" t="s">
         <v>14</v>
@@ -9716,7 +9716,7 @@
         <v>408</v>
       </c>
       <c r="I201" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J201" t="s">
         <v>18</v>
@@ -9733,13 +9733,13 @@
         <v>88</v>
       </c>
       <c r="C202" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D202" t="s">
         <v>458</v>
       </c>
       <c r="E202" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F202" t="s">
         <v>14</v>
@@ -9751,7 +9751,7 @@
         <v>169</v>
       </c>
       <c r="I202" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J202" t="s">
         <v>18</v>
@@ -9774,19 +9774,19 @@
         <v>459</v>
       </c>
       <c r="E203" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F203" t="s">
         <v>460</v>
       </c>
       <c r="G203" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H203" t="s">
         <v>30</v>
       </c>
       <c r="I203" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J203" t="s">
         <v>101</v>
@@ -9809,7 +9809,7 @@
         <v>461</v>
       </c>
       <c r="E204" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F204" t="s">
         <v>14</v>
@@ -9821,7 +9821,7 @@
         <v>292</v>
       </c>
       <c r="I204" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J204" t="s">
         <v>18</v>
@@ -9844,7 +9844,7 @@
         <v>462</v>
       </c>
       <c r="E205" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F205" t="s">
         <v>463</v>
@@ -9856,7 +9856,7 @@
         <v>260</v>
       </c>
       <c r="I205" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J205" t="s">
         <v>18</v>
@@ -9879,7 +9879,7 @@
         <v>464</v>
       </c>
       <c r="E206" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F206" t="s">
         <v>14</v>
@@ -9908,13 +9908,13 @@
         <v>93</v>
       </c>
       <c r="C207" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D207" t="s">
         <v>465</v>
       </c>
       <c r="E207" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F207" t="s">
         <v>466</v>
@@ -9926,7 +9926,7 @@
         <v>260</v>
       </c>
       <c r="I207" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J207" t="s">
         <v>18</v>
@@ -9949,7 +9949,7 @@
         <v>467</v>
       </c>
       <c r="E208" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F208" t="s">
         <v>466</v>
@@ -9961,7 +9961,7 @@
         <v>468</v>
       </c>
       <c r="I208" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J208" t="s">
         <v>101</v>
@@ -9978,13 +9978,13 @@
         <v>93</v>
       </c>
       <c r="C209" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D209" t="s">
         <v>469</v>
       </c>
       <c r="E209" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F209" t="s">
         <v>463</v>
@@ -9993,10 +9993,10 @@
         <v>288</v>
       </c>
       <c r="H209" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I209" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J209" t="s">
         <v>101</v>
@@ -10019,7 +10019,7 @@
         <v>470</v>
       </c>
       <c r="E210" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F210" t="s">
         <v>14</v>
@@ -10048,7 +10048,7 @@
         <v>218</v>
       </c>
       <c r="C211" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D211" t="s">
         <v>471</v>
@@ -10095,7 +10095,7 @@
         <v>14</v>
       </c>
       <c r="G212" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H212" t="s">
         <v>474</v>
@@ -10124,7 +10124,7 @@
         <v>475</v>
       </c>
       <c r="E213" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F213" t="s">
         <v>14</v>
@@ -10171,7 +10171,7 @@
         <v>350</v>
       </c>
       <c r="I214" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J214" t="s">
         <v>18</v>
@@ -10194,7 +10194,7 @@
         <v>477</v>
       </c>
       <c r="E215" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="F215" t="s">
         <v>14</v>
@@ -10229,7 +10229,7 @@
         <v>480</v>
       </c>
       <c r="E216" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F216" t="s">
         <v>14</v>
@@ -10293,13 +10293,13 @@
         <v>218</v>
       </c>
       <c r="C218" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D218" t="s">
         <v>484</v>
       </c>
       <c r="E218" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F218" t="s">
         <v>485</v>
@@ -10311,7 +10311,7 @@
         <v>109</v>
       </c>
       <c r="I218" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J218" t="s">
         <v>18</v>
@@ -10375,7 +10375,7 @@
         <v>14</v>
       </c>
       <c r="G220" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H220" t="s">
         <v>195</v>
@@ -10404,7 +10404,7 @@
         <v>488</v>
       </c>
       <c r="E221" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F221" t="s">
         <v>14</v>
@@ -10416,7 +10416,7 @@
         <v>190</v>
       </c>
       <c r="I221" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J221" t="s">
         <v>18</v>
@@ -10433,13 +10433,13 @@
         <v>218</v>
       </c>
       <c r="C222" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D222" t="s">
         <v>489</v>
       </c>
       <c r="E222" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F222" t="s">
         <v>14</v>
@@ -10474,7 +10474,7 @@
         <v>490</v>
       </c>
       <c r="E223" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F223" t="s">
         <v>104</v>
@@ -10544,7 +10544,7 @@
         <v>492</v>
       </c>
       <c r="E225" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F225" t="s">
         <v>460</v>
@@ -10556,7 +10556,7 @@
         <v>134</v>
       </c>
       <c r="I225" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J225" t="s">
         <v>18</v>
@@ -10643,7 +10643,7 @@
         <v>218</v>
       </c>
       <c r="C228" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D228" t="s">
         <v>495</v>
@@ -10655,13 +10655,13 @@
         <v>14</v>
       </c>
       <c r="G228" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H228" t="s">
         <v>96</v>
       </c>
       <c r="I228" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J228" t="s">
         <v>18</v>
@@ -10713,7 +10713,7 @@
         <v>218</v>
       </c>
       <c r="C230" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D230" t="s">
         <v>497</v>
@@ -10760,7 +10760,7 @@
         <v>14</v>
       </c>
       <c r="G231" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H231" t="s">
         <v>353</v>
@@ -10789,13 +10789,13 @@
         <v>499</v>
       </c>
       <c r="E232" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F232" t="s">
         <v>14</v>
       </c>
       <c r="G232" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H232" t="s">
         <v>109</v>
@@ -10824,7 +10824,7 @@
         <v>500</v>
       </c>
       <c r="E233" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F233" t="s">
         <v>278</v>
@@ -10903,7 +10903,7 @@
         <v>503</v>
       </c>
       <c r="H235" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I235" t="s">
         <v>25</v>
@@ -10929,7 +10929,7 @@
         <v>504</v>
       </c>
       <c r="E236" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="F236" t="s">
         <v>14</v>
@@ -10964,7 +10964,7 @@
         <v>505</v>
       </c>
       <c r="E237" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F237" t="s">
         <v>14</v>
@@ -10999,19 +10999,19 @@
         <v>506</v>
       </c>
       <c r="E238" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F238" t="s">
         <v>14</v>
       </c>
       <c r="G238" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H238" t="s">
         <v>70</v>
       </c>
       <c r="I238" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J238" t="s">
         <v>18</v>
@@ -11034,7 +11034,7 @@
         <v>507</v>
       </c>
       <c r="E239" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F239" t="s">
         <v>14</v>
@@ -11063,13 +11063,13 @@
         <v>152</v>
       </c>
       <c r="C240" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D240" t="s">
         <v>508</v>
       </c>
       <c r="E240" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F240" t="s">
         <v>14</v>
@@ -11110,7 +11110,7 @@
         <v>14</v>
       </c>
       <c r="G241" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H241" t="s">
         <v>384</v>
@@ -11139,7 +11139,7 @@
         <v>510</v>
       </c>
       <c r="E242" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F242" t="s">
         <v>14</v>
@@ -11168,7 +11168,7 @@
         <v>152</v>
       </c>
       <c r="C243" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D243" t="s">
         <v>511</v>
@@ -11244,7 +11244,7 @@
         <v>513</v>
       </c>
       <c r="E245" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F245" t="s">
         <v>14</v>
@@ -11256,7 +11256,7 @@
         <v>100</v>
       </c>
       <c r="I245" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J245" t="s">
         <v>101</v>
@@ -11291,7 +11291,7 @@
         <v>282</v>
       </c>
       <c r="I246" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J246" t="s">
         <v>18</v>
@@ -11314,7 +11314,7 @@
         <v>515</v>
       </c>
       <c r="E247" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F247" t="s">
         <v>14</v>
@@ -11378,13 +11378,13 @@
         <v>193</v>
       </c>
       <c r="C249" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D249" t="s">
         <v>517</v>
       </c>
       <c r="E249" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F249" t="s">
         <v>14</v>
@@ -11454,7 +11454,7 @@
         <v>519</v>
       </c>
       <c r="E251" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F251" t="s">
         <v>14</v>
@@ -11466,7 +11466,7 @@
         <v>288</v>
       </c>
       <c r="I251" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J251" t="s">
         <v>101</v>
@@ -11489,7 +11489,7 @@
         <v>520</v>
       </c>
       <c r="E252" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F252" t="s">
         <v>14</v>
@@ -11518,13 +11518,13 @@
         <v>193</v>
       </c>
       <c r="C253" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D253" t="s">
         <v>521</v>
       </c>
       <c r="E253" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F253" t="s">
         <v>14</v>
@@ -11559,7 +11559,7 @@
         <v>522</v>
       </c>
       <c r="E254" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F254" t="s">
         <v>14</v>
@@ -11594,7 +11594,7 @@
         <v>524</v>
       </c>
       <c r="E255" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F255" t="s">
         <v>14</v>
@@ -11623,7 +11623,7 @@
         <v>193</v>
       </c>
       <c r="C256" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D256" t="s">
         <v>525</v>
@@ -11658,13 +11658,13 @@
         <v>193</v>
       </c>
       <c r="C257" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D257" t="s">
         <v>526</v>
       </c>
       <c r="E257" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F257" t="s">
         <v>126</v>
@@ -11676,7 +11676,7 @@
         <v>195</v>
       </c>
       <c r="I257" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J257" t="s">
         <v>101</v>
@@ -11734,7 +11734,7 @@
         <v>528</v>
       </c>
       <c r="E259" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F259" t="s">
         <v>14</v>
@@ -11760,7 +11760,7 @@
         <v>259.0</v>
       </c>
       <c r="B260" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C260" t="s">
         <v>117</v>
@@ -11795,7 +11795,7 @@
         <v>260.0</v>
       </c>
       <c r="B261" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C261" t="s">
         <v>124</v>
@@ -11804,7 +11804,7 @@
         <v>530</v>
       </c>
       <c r="E261" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F261" t="s">
         <v>14</v>
@@ -11816,7 +11816,7 @@
         <v>532</v>
       </c>
       <c r="I261" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J261" t="s">
         <v>18</v>
@@ -11830,7 +11830,7 @@
         <v>261.0</v>
       </c>
       <c r="B262" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C262" t="s">
         <v>303</v>
@@ -11839,7 +11839,7 @@
         <v>533</v>
       </c>
       <c r="E262" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F262" t="s">
         <v>534</v>
@@ -11865,7 +11865,7 @@
         <v>262.0</v>
       </c>
       <c r="B263" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C263" t="s">
         <v>187</v>
@@ -11886,7 +11886,7 @@
         <v>418</v>
       </c>
       <c r="I263" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J263" t="s">
         <v>101</v>
@@ -11900,10 +11900,10 @@
         <v>263.0</v>
       </c>
       <c r="B264" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C264" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D264" t="s">
         <v>536</v>
@@ -11921,7 +11921,7 @@
         <v>353</v>
       </c>
       <c r="I264" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J264" t="s">
         <v>18</v>
@@ -11935,7 +11935,7 @@
         <v>264.0</v>
       </c>
       <c r="B265" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C265" t="s">
         <v>93</v>
@@ -11956,7 +11956,7 @@
         <v>220</v>
       </c>
       <c r="I265" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J265" t="s">
         <v>301</v>
@@ -11970,7 +11970,7 @@
         <v>265.0</v>
       </c>
       <c r="B266" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C266" t="s">
         <v>218</v>
@@ -12005,10 +12005,10 @@
         <v>266.0</v>
       </c>
       <c r="B267" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C267" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D267" t="s">
         <v>540</v>
@@ -12040,10 +12040,10 @@
         <v>267.0</v>
       </c>
       <c r="B268" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C268" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D268" t="s">
         <v>541</v>
@@ -12075,7 +12075,7 @@
         <v>268.0</v>
       </c>
       <c r="B269" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C269" t="s">
         <v>354</v>
@@ -12084,7 +12084,7 @@
         <v>542</v>
       </c>
       <c r="E269" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="F269" t="s">
         <v>14</v>
@@ -12110,7 +12110,7 @@
         <v>269.0</v>
       </c>
       <c r="B270" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C270" t="s">
         <v>201</v>
@@ -12119,7 +12119,7 @@
         <v>544</v>
       </c>
       <c r="E270" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F270" t="s">
         <v>14</v>
@@ -12145,7 +12145,7 @@
         <v>270.0</v>
       </c>
       <c r="B271" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C271" t="s">
         <v>225</v>
@@ -12180,7 +12180,7 @@
         <v>271.0</v>
       </c>
       <c r="B272" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C272" t="s">
         <v>233</v>
@@ -12215,10 +12215,10 @@
         <v>272.0</v>
       </c>
       <c r="B273" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C273" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D273" t="s">
         <v>548</v>
@@ -12250,7 +12250,7 @@
         <v>273.0</v>
       </c>
       <c r="B274" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C274" t="s">
         <v>289</v>
@@ -12285,16 +12285,16 @@
         <v>274.0</v>
       </c>
       <c r="B275" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C275" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D275" t="s">
         <v>550</v>
       </c>
       <c r="E275" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F275" t="s">
         <v>14</v>
@@ -12320,7 +12320,7 @@
         <v>275.0</v>
       </c>
       <c r="B276" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C276" t="s">
         <v>20</v>
@@ -12329,7 +12329,7 @@
         <v>551</v>
       </c>
       <c r="E276" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F276" t="s">
         <v>14</v>
@@ -12355,7 +12355,7 @@
         <v>276.0</v>
       </c>
       <c r="B277" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C277" t="s">
         <v>107</v>
@@ -12390,7 +12390,7 @@
         <v>277.0</v>
       </c>
       <c r="B278" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C278" t="s">
         <v>117</v>
@@ -12399,7 +12399,7 @@
         <v>553</v>
       </c>
       <c r="E278" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F278" t="s">
         <v>14</v>
@@ -12425,7 +12425,7 @@
         <v>278.0</v>
       </c>
       <c r="B279" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C279" t="s">
         <v>303</v>
@@ -12460,7 +12460,7 @@
         <v>279.0</v>
       </c>
       <c r="B280" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C280" t="s">
         <v>132</v>
@@ -12481,7 +12481,7 @@
         <v>556</v>
       </c>
       <c r="I280" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J280" t="s">
         <v>18</v>
@@ -12495,7 +12495,7 @@
         <v>280.0</v>
       </c>
       <c r="B281" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C281" t="s">
         <v>78</v>
@@ -12504,7 +12504,7 @@
         <v>557</v>
       </c>
       <c r="E281" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F281" t="s">
         <v>14</v>
@@ -12530,7 +12530,7 @@
         <v>281.0</v>
       </c>
       <c r="B282" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C282" t="s">
         <v>88</v>
@@ -12539,7 +12539,7 @@
         <v>559</v>
       </c>
       <c r="E282" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F282" t="s">
         <v>14</v>
@@ -12551,7 +12551,7 @@
         <v>186</v>
       </c>
       <c r="I282" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J282" t="s">
         <v>101</v>
@@ -12565,7 +12565,7 @@
         <v>282.0</v>
       </c>
       <c r="B283" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C283" t="s">
         <v>218</v>
@@ -12574,7 +12574,7 @@
         <v>560</v>
       </c>
       <c r="E283" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F283" t="s">
         <v>14</v>
@@ -12600,7 +12600,7 @@
         <v>283.0</v>
       </c>
       <c r="B284" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C284" t="s">
         <v>354</v>
@@ -12609,7 +12609,7 @@
         <v>562</v>
       </c>
       <c r="E284" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F284" t="s">
         <v>14</v>
@@ -12621,7 +12621,7 @@
         <v>190</v>
       </c>
       <c r="I284" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J284" t="s">
         <v>18</v>
@@ -12635,7 +12635,7 @@
         <v>284.0</v>
       </c>
       <c r="B285" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C285" t="s">
         <v>225</v>
@@ -12670,7 +12670,7 @@
         <v>285.0</v>
       </c>
       <c r="B286" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C286" t="s">
         <v>229</v>
@@ -12679,10 +12679,10 @@
         <v>564</v>
       </c>
       <c r="E286" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F286" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G286" t="s">
         <v>287</v>
@@ -12705,7 +12705,7 @@
         <v>286.0</v>
       </c>
       <c r="B287" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C287" t="s">
         <v>233</v>
@@ -12714,7 +12714,7 @@
         <v>565</v>
       </c>
       <c r="E287" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F287" t="s">
         <v>14</v>
@@ -12740,7 +12740,7 @@
         <v>287.0</v>
       </c>
       <c r="B288" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C288" t="s">
         <v>164</v>
@@ -12749,7 +12749,7 @@
         <v>566</v>
       </c>
       <c r="E288" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F288" t="s">
         <v>14</v>
@@ -12761,7 +12761,7 @@
         <v>260</v>
       </c>
       <c r="I288" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J288" t="s">
         <v>18</v>
@@ -12775,16 +12775,16 @@
         <v>288.0</v>
       </c>
       <c r="B289" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C289" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D289" t="s">
         <v>567</v>
       </c>
       <c r="E289" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F289" t="s">
         <v>428</v>
@@ -12810,7 +12810,7 @@
         <v>289.0</v>
       </c>
       <c r="B290" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C290" t="s">
         <v>237</v>
@@ -12831,7 +12831,7 @@
         <v>425</v>
       </c>
       <c r="I290" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J290" t="s">
         <v>18</v>
@@ -12845,7 +12845,7 @@
         <v>290.0</v>
       </c>
       <c r="B291" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C291" t="s">
         <v>241</v>
@@ -12880,16 +12880,16 @@
         <v>291.0</v>
       </c>
       <c r="B292" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C292" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D292" t="s">
         <v>572</v>
       </c>
       <c r="E292" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F292" t="s">
         <v>14</v>
@@ -12901,7 +12901,7 @@
         <v>272</v>
       </c>
       <c r="I292" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J292" t="s">
         <v>101</v>
@@ -12915,7 +12915,7 @@
         <v>292.0</v>
       </c>
       <c r="B293" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C293" t="s">
         <v>245</v>
@@ -12933,10 +12933,10 @@
         <v>425</v>
       </c>
       <c r="H293" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I293" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J293" t="s">
         <v>101</v>
@@ -12994,7 +12994,7 @@
         <v>575</v>
       </c>
       <c r="E295" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F295" t="s">
         <v>14</v>
@@ -13029,7 +13029,7 @@
         <v>576</v>
       </c>
       <c r="E296" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F296" t="s">
         <v>14</v>
@@ -13041,7 +13041,7 @@
         <v>235</v>
       </c>
       <c r="I296" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J296" t="s">
         <v>101</v>
@@ -13064,7 +13064,7 @@
         <v>577</v>
       </c>
       <c r="E297" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F297" t="s">
         <v>14</v>
@@ -13099,7 +13099,7 @@
         <v>578</v>
       </c>
       <c r="E298" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F298" t="s">
         <v>14</v>
@@ -13134,7 +13134,7 @@
         <v>579</v>
       </c>
       <c r="E299" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F299" t="s">
         <v>14</v>
@@ -13181,7 +13181,7 @@
         <v>121</v>
       </c>
       <c r="I300" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J300" t="s">
         <v>77</v>
@@ -13204,7 +13204,7 @@
         <v>581</v>
       </c>
       <c r="E301" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F301" t="s">
         <v>278</v>
@@ -13239,7 +13239,7 @@
         <v>582</v>
       </c>
       <c r="E302" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F302" t="s">
         <v>14</v>
@@ -13251,7 +13251,7 @@
         <v>143</v>
       </c>
       <c r="I302" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J302" t="s">
         <v>18</v>
@@ -13268,7 +13268,7 @@
         <v>354</v>
       </c>
       <c r="C303" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D303" t="s">
         <v>583</v>
@@ -13309,7 +13309,7 @@
         <v>584</v>
       </c>
       <c r="E304" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F304" t="s">
         <v>14</v>
@@ -13426,7 +13426,7 @@
         <v>121</v>
       </c>
       <c r="I307" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J307" t="s">
         <v>77</v>
@@ -13449,7 +13449,7 @@
         <v>588</v>
       </c>
       <c r="E308" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F308" t="s">
         <v>14</v>
@@ -13484,7 +13484,7 @@
         <v>589</v>
       </c>
       <c r="E309" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F309" t="s">
         <v>80</v>
@@ -13496,7 +13496,7 @@
         <v>128</v>
       </c>
       <c r="I309" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J309" t="s">
         <v>77</v>
@@ -13525,7 +13525,7 @@
         <v>443</v>
       </c>
       <c r="G310" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H310" t="s">
         <v>256</v>
@@ -13554,7 +13554,7 @@
         <v>591</v>
       </c>
       <c r="E311" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F311" t="s">
         <v>14</v>
@@ -13630,7 +13630,7 @@
         <v>14</v>
       </c>
       <c r="G313" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H313" t="s">
         <v>256</v>
@@ -13659,7 +13659,7 @@
         <v>594</v>
       </c>
       <c r="E314" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F314" t="s">
         <v>335</v>
@@ -13671,7 +13671,7 @@
         <v>468</v>
       </c>
       <c r="I314" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J314" t="s">
         <v>18</v>
@@ -13706,7 +13706,7 @@
         <v>231</v>
       </c>
       <c r="I315" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J315" t="s">
         <v>18</v>
@@ -13723,7 +13723,7 @@
         <v>201</v>
       </c>
       <c r="C316" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D316" t="s">
         <v>596</v>
@@ -13764,7 +13764,7 @@
         <v>597</v>
       </c>
       <c r="E317" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F317" t="s">
         <v>126</v>
@@ -13773,10 +13773,10 @@
         <v>288</v>
       </c>
       <c r="H317" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I317" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J317" t="s">
         <v>18</v>
@@ -13793,13 +13793,13 @@
         <v>225</v>
       </c>
       <c r="C318" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D318" t="s">
         <v>598</v>
       </c>
       <c r="E318" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F318" t="s">
         <v>85</v>
@@ -13834,7 +13834,7 @@
         <v>599</v>
       </c>
       <c r="E319" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F319" t="s">
         <v>222</v>
@@ -13846,7 +13846,7 @@
         <v>76</v>
       </c>
       <c r="I319" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J319" t="s">
         <v>18</v>
@@ -13869,7 +13869,7 @@
         <v>600</v>
       </c>
       <c r="E320" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F320" t="s">
         <v>14</v>
@@ -13904,7 +13904,7 @@
         <v>601</v>
       </c>
       <c r="E321" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F321" t="s">
         <v>14</v>
@@ -13916,7 +13916,7 @@
         <v>602</v>
       </c>
       <c r="I321" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J321" t="s">
         <v>18</v>
@@ -13939,7 +13939,7 @@
         <v>603</v>
       </c>
       <c r="E322" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F322" t="s">
         <v>14</v>
@@ -13968,7 +13968,7 @@
         <v>225</v>
       </c>
       <c r="C323" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D323" t="s">
         <v>604</v>
@@ -13986,7 +13986,7 @@
         <v>424</v>
       </c>
       <c r="I323" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J323" t="s">
         <v>18</v>
@@ -14009,7 +14009,7 @@
         <v>605</v>
       </c>
       <c r="E324" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F324" t="s">
         <v>431</v>
@@ -14021,7 +14021,7 @@
         <v>138</v>
       </c>
       <c r="I324" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J324" t="s">
         <v>18</v>
@@ -14044,7 +14044,7 @@
         <v>606</v>
       </c>
       <c r="E325" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F325" t="s">
         <v>14</v>
@@ -14056,7 +14056,7 @@
         <v>305</v>
       </c>
       <c r="I325" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J325" t="s">
         <v>18</v>
@@ -14073,13 +14073,13 @@
         <v>225</v>
       </c>
       <c r="C326" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D326" t="s">
         <v>607</v>
       </c>
       <c r="E326" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F326" t="s">
         <v>460</v>
@@ -14091,7 +14091,7 @@
         <v>31</v>
       </c>
       <c r="I326" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J326" t="s">
         <v>77</v>
@@ -14114,7 +14114,7 @@
         <v>608</v>
       </c>
       <c r="E327" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F327" t="s">
         <v>431</v>
@@ -14149,7 +14149,7 @@
         <v>609</v>
       </c>
       <c r="E328" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F328" t="s">
         <v>251</v>
@@ -14161,7 +14161,7 @@
         <v>186</v>
       </c>
       <c r="I328" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J328" t="s">
         <v>101</v>
@@ -14178,13 +14178,13 @@
         <v>229</v>
       </c>
       <c r="C329" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D329" t="s">
         <v>610</v>
       </c>
       <c r="E329" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F329" t="s">
         <v>14</v>
@@ -14219,7 +14219,7 @@
         <v>611</v>
       </c>
       <c r="E330" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F330" t="s">
         <v>14</v>
@@ -14231,7 +14231,7 @@
         <v>95</v>
       </c>
       <c r="I330" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J330" t="s">
         <v>77</v>
@@ -14254,13 +14254,13 @@
         <v>612</v>
       </c>
       <c r="E331" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="F331" t="s">
         <v>14</v>
       </c>
       <c r="G331" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H331" t="s">
         <v>356</v>
@@ -14289,7 +14289,7 @@
         <v>613</v>
       </c>
       <c r="E332" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F332" t="s">
         <v>485</v>
@@ -14298,10 +14298,10 @@
         <v>166</v>
       </c>
       <c r="H332" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I332" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J332" t="s">
         <v>18</v>
@@ -14324,13 +14324,13 @@
         <v>614</v>
       </c>
       <c r="E333" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F333" t="s">
         <v>615</v>
       </c>
       <c r="G333" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H333" t="s">
         <v>356</v>
@@ -14359,13 +14359,13 @@
         <v>616</v>
       </c>
       <c r="E334" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F334" t="s">
         <v>222</v>
       </c>
       <c r="G334" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H334" t="s">
         <v>176</v>
@@ -14394,7 +14394,7 @@
         <v>617</v>
       </c>
       <c r="E335" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F335" t="s">
         <v>14</v>
@@ -14429,7 +14429,7 @@
         <v>618</v>
       </c>
       <c r="E336" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F336" t="s">
         <v>222</v>
@@ -14441,7 +14441,7 @@
         <v>177</v>
       </c>
       <c r="I336" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J336" t="s">
         <v>18</v>
@@ -14464,7 +14464,7 @@
         <v>619</v>
       </c>
       <c r="E337" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F337" t="s">
         <v>14</v>
@@ -14499,7 +14499,7 @@
         <v>620</v>
       </c>
       <c r="E338" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F338" t="s">
         <v>428</v>
@@ -14511,7 +14511,7 @@
         <v>100</v>
       </c>
       <c r="I338" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J338" t="s">
         <v>101</v>
@@ -14563,13 +14563,13 @@
         <v>159</v>
       </c>
       <c r="C340" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D340" t="s">
         <v>622</v>
       </c>
       <c r="E340" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F340" t="s">
         <v>14</v>
@@ -14616,7 +14616,7 @@
         <v>308</v>
       </c>
       <c r="I341" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J341" t="s">
         <v>101</v>
@@ -14639,7 +14639,7 @@
         <v>624</v>
       </c>
       <c r="E342" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F342" t="s">
         <v>14</v>
@@ -14651,7 +14651,7 @@
         <v>367</v>
       </c>
       <c r="I342" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J342" t="s">
         <v>101</v>
@@ -14674,7 +14674,7 @@
         <v>625</v>
       </c>
       <c r="E343" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F343" t="s">
         <v>534</v>
@@ -14686,7 +14686,7 @@
         <v>262</v>
       </c>
       <c r="I343" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J343" t="s">
         <v>101</v>
@@ -14709,7 +14709,7 @@
         <v>626</v>
       </c>
       <c r="E344" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F344" t="s">
         <v>428</v>
@@ -14744,7 +14744,7 @@
         <v>627</v>
       </c>
       <c r="E345" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F345" t="s">
         <v>428</v>
@@ -14849,7 +14849,7 @@
         <v>630</v>
       </c>
       <c r="E348" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F348" t="s">
         <v>485</v>
@@ -14884,7 +14884,7 @@
         <v>631</v>
       </c>
       <c r="E349" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F349" t="s">
         <v>485</v>
@@ -14896,7 +14896,7 @@
         <v>100</v>
       </c>
       <c r="I349" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J349" t="s">
         <v>101</v>
@@ -14913,7 +14913,7 @@
         <v>159</v>
       </c>
       <c r="C350" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D350" t="s">
         <v>632</v>
@@ -14931,7 +14931,7 @@
         <v>100</v>
       </c>
       <c r="I350" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J350" t="s">
         <v>101</v>
@@ -14948,13 +14948,13 @@
         <v>159</v>
       </c>
       <c r="C351" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D351" t="s">
         <v>633</v>
       </c>
       <c r="E351" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F351" t="s">
         <v>428</v>
@@ -15001,7 +15001,7 @@
         <v>87</v>
       </c>
       <c r="I352" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J352" t="s">
         <v>101</v>
@@ -15059,7 +15059,7 @@
         <v>636</v>
       </c>
       <c r="E354" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F354" t="s">
         <v>14</v>
@@ -15071,7 +15071,7 @@
         <v>256</v>
       </c>
       <c r="I354" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J354" t="s">
         <v>301</v>
@@ -15094,7 +15094,7 @@
         <v>637</v>
       </c>
       <c r="E355" t="s">
-        <v>537</v>
+        <v>154</v>
       </c>
       <c r="F355" t="s">
         <v>14</v>
@@ -15138,10 +15138,10 @@
         <v>413</v>
       </c>
       <c r="H356" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I356" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J356" t="s">
         <v>77</v>
@@ -15164,7 +15164,7 @@
         <v>639</v>
       </c>
       <c r="E357" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F357" t="s">
         <v>14</v>
@@ -15176,7 +15176,7 @@
         <v>272</v>
       </c>
       <c r="I357" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J357" t="s">
         <v>101</v>
@@ -15193,13 +15193,13 @@
         <v>233</v>
       </c>
       <c r="C358" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D358" t="s">
         <v>640</v>
       </c>
       <c r="E358" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F358" t="s">
         <v>641</v>
@@ -15234,7 +15234,7 @@
         <v>642</v>
       </c>
       <c r="E359" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F359" t="s">
         <v>14</v>
@@ -15298,13 +15298,13 @@
         <v>233</v>
       </c>
       <c r="C361" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D361" t="s">
         <v>644</v>
       </c>
       <c r="E361" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F361" t="s">
         <v>161</v>
@@ -15339,7 +15339,7 @@
         <v>645</v>
       </c>
       <c r="E362" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="F362" t="s">
         <v>14</v>
@@ -15386,7 +15386,7 @@
         <v>647</v>
       </c>
       <c r="I363" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J363" t="s">
         <v>77</v>
@@ -15444,7 +15444,7 @@
         <v>649</v>
       </c>
       <c r="E365" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F365" t="s">
         <v>14</v>
@@ -15479,7 +15479,7 @@
         <v>650</v>
       </c>
       <c r="E366" t="s">
-        <v>537</v>
+        <v>154</v>
       </c>
       <c r="F366" t="s">
         <v>14</v>
@@ -15514,7 +15514,7 @@
         <v>651</v>
       </c>
       <c r="E367" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F367" t="s">
         <v>641</v>
@@ -15526,7 +15526,7 @@
         <v>272</v>
       </c>
       <c r="I367" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J367" t="s">
         <v>101</v>
@@ -15549,7 +15549,7 @@
         <v>652</v>
       </c>
       <c r="E368" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F368" t="s">
         <v>14</v>
@@ -15584,7 +15584,7 @@
         <v>653</v>
       </c>
       <c r="E369" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="F369" t="s">
         <v>14</v>
@@ -15596,7 +15596,7 @@
         <v>95</v>
       </c>
       <c r="I369" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J369" t="s">
         <v>18</v>
@@ -15613,13 +15613,13 @@
         <v>233</v>
       </c>
       <c r="C370" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D370" t="s">
         <v>654</v>
       </c>
       <c r="E370" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F370" t="s">
         <v>14</v>
@@ -15654,7 +15654,7 @@
         <v>655</v>
       </c>
       <c r="E371" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F371" t="s">
         <v>251</v>
@@ -15689,7 +15689,7 @@
         <v>656</v>
       </c>
       <c r="E372" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F372" t="s">
         <v>657</v>
@@ -15829,7 +15829,7 @@
         <v>662</v>
       </c>
       <c r="E376" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F376" t="s">
         <v>14</v>
@@ -15838,7 +15838,7 @@
         <v>69</v>
       </c>
       <c r="H376" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I376" t="s">
         <v>83</v>
@@ -15876,7 +15876,7 @@
         <v>408</v>
       </c>
       <c r="I377" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J377" t="s">
         <v>18</v>
@@ -15893,13 +15893,13 @@
         <v>164</v>
       </c>
       <c r="C378" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D378" t="s">
         <v>664</v>
       </c>
       <c r="E378" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F378" t="s">
         <v>14</v>
@@ -15911,7 +15911,7 @@
         <v>143</v>
       </c>
       <c r="I378" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J378" t="s">
         <v>101</v>
@@ -15963,13 +15963,13 @@
         <v>164</v>
       </c>
       <c r="C380" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D380" t="s">
         <v>666</v>
       </c>
       <c r="E380" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F380" t="s">
         <v>14</v>
@@ -15978,10 +15978,10 @@
         <v>284</v>
       </c>
       <c r="H380" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I380" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J380" t="s">
         <v>18</v>
@@ -15995,7 +15995,7 @@
         <v>380.0</v>
       </c>
       <c r="B381" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C381" t="s">
         <v>174</v>
@@ -16004,7 +16004,7 @@
         <v>667</v>
       </c>
       <c r="E381" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F381" t="s">
         <v>161</v>
@@ -16016,7 +16016,7 @@
         <v>81</v>
       </c>
       <c r="I381" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J381" t="s">
         <v>273</v>
@@ -16030,7 +16030,7 @@
         <v>381.0</v>
       </c>
       <c r="B382" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C382" t="s">
         <v>107</v>
@@ -16039,7 +16039,7 @@
         <v>668</v>
       </c>
       <c r="E382" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F382" t="s">
         <v>428</v>
@@ -16065,7 +16065,7 @@
         <v>382.0</v>
       </c>
       <c r="B383" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C383" t="s">
         <v>111</v>
@@ -16100,7 +16100,7 @@
         <v>383.0</v>
       </c>
       <c r="B384" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C384" t="s">
         <v>117</v>
@@ -16109,7 +16109,7 @@
         <v>670</v>
       </c>
       <c r="E384" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F384" t="s">
         <v>14</v>
@@ -16135,7 +16135,7 @@
         <v>384.0</v>
       </c>
       <c r="B385" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C385" t="s">
         <v>27</v>
@@ -16144,7 +16144,7 @@
         <v>671</v>
       </c>
       <c r="E385" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F385" t="s">
         <v>428</v>
@@ -16156,7 +16156,7 @@
         <v>86</v>
       </c>
       <c r="I385" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J385" t="s">
         <v>18</v>
@@ -16170,7 +16170,7 @@
         <v>385.0</v>
       </c>
       <c r="B386" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C386" t="s">
         <v>33</v>
@@ -16179,7 +16179,7 @@
         <v>672</v>
       </c>
       <c r="E386" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F386" t="s">
         <v>443</v>
@@ -16205,7 +16205,7 @@
         <v>386.0</v>
       </c>
       <c r="B387" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C387" t="s">
         <v>78</v>
@@ -16214,7 +16214,7 @@
         <v>673</v>
       </c>
       <c r="E387" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F387" t="s">
         <v>660</v>
@@ -16226,7 +16226,7 @@
         <v>336</v>
       </c>
       <c r="I387" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J387" t="s">
         <v>301</v>
@@ -16240,16 +16240,16 @@
         <v>387.0</v>
       </c>
       <c r="B388" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C388" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D388" t="s">
         <v>674</v>
       </c>
       <c r="E388" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F388" t="s">
         <v>14</v>
@@ -16275,7 +16275,7 @@
         <v>388.0</v>
       </c>
       <c r="B389" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C389" t="s">
         <v>193</v>
@@ -16284,7 +16284,7 @@
         <v>675</v>
       </c>
       <c r="E389" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F389" t="s">
         <v>443</v>
@@ -16296,7 +16296,7 @@
         <v>279</v>
       </c>
       <c r="I389" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J389" t="s">
         <v>18</v>
@@ -16310,7 +16310,7 @@
         <v>389.0</v>
       </c>
       <c r="B390" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C390" t="s">
         <v>225</v>
@@ -16319,7 +16319,7 @@
         <v>676</v>
       </c>
       <c r="E390" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F390" t="s">
         <v>428</v>
@@ -16331,7 +16331,7 @@
         <v>228</v>
       </c>
       <c r="I390" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J390" t="s">
         <v>301</v>
@@ -16345,7 +16345,7 @@
         <v>390.0</v>
       </c>
       <c r="B391" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C391" t="s">
         <v>229</v>
@@ -16354,7 +16354,7 @@
         <v>677</v>
       </c>
       <c r="E391" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F391" t="s">
         <v>14</v>
@@ -16366,7 +16366,7 @@
         <v>220</v>
       </c>
       <c r="I391" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J391" t="s">
         <v>273</v>
@@ -16380,7 +16380,7 @@
         <v>391.0</v>
       </c>
       <c r="B392" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C392" t="s">
         <v>159</v>
@@ -16389,7 +16389,7 @@
         <v>678</v>
       </c>
       <c r="E392" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F392" t="s">
         <v>460</v>
@@ -16401,7 +16401,7 @@
         <v>336</v>
       </c>
       <c r="I392" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J392" t="s">
         <v>301</v>
@@ -16415,7 +16415,7 @@
         <v>392.0</v>
       </c>
       <c r="B393" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C393" t="s">
         <v>164</v>
@@ -16424,7 +16424,7 @@
         <v>679</v>
       </c>
       <c r="E393" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F393" t="s">
         <v>680</v>
@@ -16436,7 +16436,7 @@
         <v>279</v>
       </c>
       <c r="I393" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J393" t="s">
         <v>301</v>
@@ -16450,7 +16450,7 @@
         <v>393.0</v>
       </c>
       <c r="B394" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C394" t="s">
         <v>241</v>
@@ -16465,7 +16465,7 @@
         <v>428</v>
       </c>
       <c r="G394" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H394" t="s">
         <v>558</v>
@@ -16485,16 +16485,16 @@
         <v>394.0</v>
       </c>
       <c r="B395" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C395" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D395" t="s">
         <v>682</v>
       </c>
       <c r="E395" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F395" t="s">
         <v>460</v>
@@ -16529,7 +16529,7 @@
         <v>683</v>
       </c>
       <c r="E396" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F396" t="s">
         <v>14</v>
@@ -16538,10 +16538,10 @@
         <v>309</v>
       </c>
       <c r="H396" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I396" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J396" t="s">
         <v>101</v>
@@ -16564,7 +16564,7 @@
         <v>684</v>
       </c>
       <c r="E397" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F397" t="s">
         <v>299</v>
@@ -16576,7 +16576,7 @@
         <v>95</v>
       </c>
       <c r="I397" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J397" t="s">
         <v>101</v>
@@ -16599,7 +16599,7 @@
         <v>685</v>
       </c>
       <c r="E398" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F398" t="s">
         <v>14</v>
@@ -16634,7 +16634,7 @@
         <v>686</v>
       </c>
       <c r="E399" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F399" t="s">
         <v>90</v>
@@ -16646,7 +16646,7 @@
         <v>272</v>
       </c>
       <c r="I399" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J399" t="s">
         <v>101</v>
@@ -16704,7 +16704,7 @@
         <v>690</v>
       </c>
       <c r="E401" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F401" t="s">
         <v>14</v>
@@ -16751,7 +16751,7 @@
         <v>692</v>
       </c>
       <c r="I402" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J402" t="s">
         <v>18</v>
@@ -16768,13 +16768,13 @@
         <v>237</v>
       </c>
       <c r="C403" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D403" t="s">
         <v>693</v>
       </c>
       <c r="E403" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F403" t="s">
         <v>14</v>
@@ -16809,7 +16809,7 @@
         <v>694</v>
       </c>
       <c r="E404" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F404" t="s">
         <v>695</v>
@@ -16844,7 +16844,7 @@
         <v>696</v>
       </c>
       <c r="E405" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="F405" t="s">
         <v>695</v>
@@ -16856,7 +16856,7 @@
         <v>468</v>
       </c>
       <c r="I405" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J405" t="s">
         <v>101</v>
@@ -17031,7 +17031,7 @@
         <v>366</v>
       </c>
       <c r="I410" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J410" t="s">
         <v>101</v>
@@ -17054,7 +17054,7 @@
         <v>702</v>
       </c>
       <c r="E411" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F411" t="s">
         <v>90</v>
@@ -17066,7 +17066,7 @@
         <v>413</v>
       </c>
       <c r="I411" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J411" t="s">
         <v>101</v>
@@ -17124,7 +17124,7 @@
         <v>704</v>
       </c>
       <c r="E413" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F413" t="s">
         <v>14</v>
@@ -17229,7 +17229,7 @@
         <v>707</v>
       </c>
       <c r="E416" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F416" t="s">
         <v>227</v>
@@ -17264,7 +17264,7 @@
         <v>708</v>
       </c>
       <c r="E417" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F417" t="s">
         <v>14</v>
@@ -17276,7 +17276,7 @@
         <v>235</v>
       </c>
       <c r="I417" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J417" t="s">
         <v>101</v>
@@ -17334,7 +17334,7 @@
         <v>710</v>
       </c>
       <c r="E419" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F419" t="s">
         <v>227</v>
@@ -17343,7 +17343,7 @@
         <v>130</v>
       </c>
       <c r="H419" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I419" t="s">
         <v>131</v>
@@ -17363,13 +17363,13 @@
         <v>289</v>
       </c>
       <c r="C420" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D420" t="s">
         <v>711</v>
       </c>
       <c r="E420" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F420" t="s">
         <v>14</v>
@@ -17404,19 +17404,19 @@
         <v>712</v>
       </c>
       <c r="E421" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F421" t="s">
         <v>14</v>
       </c>
       <c r="G421" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H421" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I421" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J421" t="s">
         <v>101</v>
@@ -17439,7 +17439,7 @@
         <v>713</v>
       </c>
       <c r="E422" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F422" t="s">
         <v>14</v>
@@ -17474,7 +17474,7 @@
         <v>715</v>
       </c>
       <c r="E423" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F423" t="s">
         <v>14</v>
@@ -17509,7 +17509,7 @@
         <v>716</v>
       </c>
       <c r="E424" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F424" t="s">
         <v>14</v>
@@ -17544,7 +17544,7 @@
         <v>717</v>
       </c>
       <c r="E425" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F425" t="s">
         <v>14</v>
@@ -17579,7 +17579,7 @@
         <v>718</v>
       </c>
       <c r="E426" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F426" t="s">
         <v>14</v>
@@ -17591,7 +17591,7 @@
         <v>281</v>
       </c>
       <c r="I426" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J426" t="s">
         <v>18</v>
@@ -17614,7 +17614,7 @@
         <v>719</v>
       </c>
       <c r="E427" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F427" t="s">
         <v>14</v>
@@ -17626,7 +17626,7 @@
         <v>449</v>
       </c>
       <c r="I427" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J427" t="s">
         <v>18</v>
@@ -17684,7 +17684,7 @@
         <v>721</v>
       </c>
       <c r="E429" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F429" t="s">
         <v>14</v>
@@ -17719,7 +17719,7 @@
         <v>722</v>
       </c>
       <c r="E430" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F430" t="s">
         <v>14</v>
@@ -17754,7 +17754,7 @@
         <v>723</v>
       </c>
       <c r="E431" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F431" t="s">
         <v>14</v>
@@ -17780,7 +17780,7 @@
         <v>431.0</v>
       </c>
       <c r="B432" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C432" t="s">
         <v>20</v>
@@ -17815,7 +17815,7 @@
         <v>432.0</v>
       </c>
       <c r="B433" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C433" t="s">
         <v>174</v>
@@ -17824,7 +17824,7 @@
         <v>725</v>
       </c>
       <c r="E433" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F433" t="s">
         <v>14</v>
@@ -17836,7 +17836,7 @@
         <v>177</v>
       </c>
       <c r="I433" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J433" t="s">
         <v>101</v>
@@ -17850,7 +17850,7 @@
         <v>433.0</v>
       </c>
       <c r="B434" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C434" t="s">
         <v>111</v>
@@ -17885,7 +17885,7 @@
         <v>434.0</v>
       </c>
       <c r="B435" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C435" t="s">
         <v>72</v>
@@ -17894,7 +17894,7 @@
         <v>727</v>
       </c>
       <c r="E435" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F435" t="s">
         <v>14</v>
@@ -17920,7 +17920,7 @@
         <v>435.0</v>
       </c>
       <c r="B436" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C436" t="s">
         <v>187</v>
@@ -17929,7 +17929,7 @@
         <v>728</v>
       </c>
       <c r="E436" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F436" t="s">
         <v>14</v>
@@ -17955,7 +17955,7 @@
         <v>436.0</v>
       </c>
       <c r="B437" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C437" t="s">
         <v>132</v>
@@ -17964,7 +17964,7 @@
         <v>729</v>
       </c>
       <c r="E437" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F437" t="s">
         <v>14</v>
@@ -17990,7 +17990,7 @@
         <v>437.0</v>
       </c>
       <c r="B438" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C438" t="s">
         <v>78</v>
@@ -17999,7 +17999,7 @@
         <v>730</v>
       </c>
       <c r="E438" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F438" t="s">
         <v>317</v>
@@ -18025,7 +18025,7 @@
         <v>438.0</v>
       </c>
       <c r="B439" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C439" t="s">
         <v>218</v>
@@ -18034,7 +18034,7 @@
         <v>731</v>
       </c>
       <c r="E439" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F439" t="s">
         <v>466</v>
@@ -18046,7 +18046,7 @@
         <v>30</v>
       </c>
       <c r="I439" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J439" t="s">
         <v>273</v>
@@ -18060,7 +18060,7 @@
         <v>439.0</v>
       </c>
       <c r="B440" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C440" t="s">
         <v>193</v>
@@ -18069,7 +18069,7 @@
         <v>732</v>
       </c>
       <c r="E440" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F440" t="s">
         <v>90</v>
@@ -18081,7 +18081,7 @@
         <v>228</v>
       </c>
       <c r="I440" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J440" t="s">
         <v>101</v>
@@ -18095,7 +18095,7 @@
         <v>440.0</v>
       </c>
       <c r="B441" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C441" t="s">
         <v>225</v>
@@ -18130,16 +18130,16 @@
         <v>441.0</v>
       </c>
       <c r="B442" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C442" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D442" t="s">
         <v>734</v>
       </c>
       <c r="E442" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F442" t="s">
         <v>735</v>
@@ -18165,7 +18165,7 @@
         <v>442.0</v>
       </c>
       <c r="B443" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C443" t="s">
         <v>245</v>
@@ -18174,7 +18174,7 @@
         <v>736</v>
       </c>
       <c r="E443" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F443" t="s">
         <v>466</v>
@@ -18215,7 +18215,7 @@
         <v>14</v>
       </c>
       <c r="G444" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H444" t="s">
         <v>353</v>
@@ -18244,7 +18244,7 @@
         <v>739</v>
       </c>
       <c r="E445" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F445" t="s">
         <v>14</v>
@@ -18279,7 +18279,7 @@
         <v>740</v>
       </c>
       <c r="E446" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F446" t="s">
         <v>14</v>
@@ -18320,13 +18320,13 @@
         <v>14</v>
       </c>
       <c r="G447" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H447" t="s">
         <v>324</v>
       </c>
       <c r="I447" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J447" t="s">
         <v>101</v>
@@ -18349,7 +18349,7 @@
         <v>742</v>
       </c>
       <c r="E448" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F448" t="s">
         <v>14</v>
@@ -18361,7 +18361,7 @@
         <v>207</v>
       </c>
       <c r="I448" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J448" t="s">
         <v>18</v>
@@ -18384,7 +18384,7 @@
         <v>743</v>
       </c>
       <c r="E449" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F449" t="s">
         <v>14</v>
@@ -18396,7 +18396,7 @@
         <v>100</v>
       </c>
       <c r="I449" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J449" t="s">
         <v>101</v>
@@ -18425,7 +18425,7 @@
         <v>14</v>
       </c>
       <c r="G450" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H450" t="s">
         <v>353</v>
@@ -18460,7 +18460,7 @@
         <v>14</v>
       </c>
       <c r="G451" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H451" t="s">
         <v>324</v>
@@ -18489,19 +18489,19 @@
         <v>746</v>
       </c>
       <c r="E452" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F452" t="s">
         <v>14</v>
       </c>
       <c r="G452" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H452" t="s">
         <v>285</v>
       </c>
       <c r="I452" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J452" t="s">
         <v>101</v>
@@ -18530,7 +18530,7 @@
         <v>14</v>
       </c>
       <c r="G453" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H453" t="s">
         <v>324</v>
@@ -18559,7 +18559,7 @@
         <v>748</v>
       </c>
       <c r="E454" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F454" t="s">
         <v>14</v>
@@ -18594,7 +18594,7 @@
         <v>749</v>
       </c>
       <c r="E455" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F455" t="s">
         <v>14</v>
@@ -18629,7 +18629,7 @@
         <v>751</v>
       </c>
       <c r="E456" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F456" t="s">
         <v>660</v>
@@ -18664,7 +18664,7 @@
         <v>752</v>
       </c>
       <c r="E457" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F457" t="s">
         <v>14</v>
@@ -18699,19 +18699,19 @@
         <v>754</v>
       </c>
       <c r="E458" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F458" t="s">
         <v>463</v>
       </c>
       <c r="G458" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H458" t="s">
         <v>333</v>
       </c>
       <c r="I458" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J458" t="s">
         <v>18</v>
@@ -18734,7 +18734,7 @@
         <v>755</v>
       </c>
       <c r="E459" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F459" t="s">
         <v>463</v>
@@ -18769,7 +18769,7 @@
         <v>756</v>
       </c>
       <c r="E460" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F460" t="s">
         <v>222</v>
@@ -18778,10 +18778,10 @@
         <v>408</v>
       </c>
       <c r="H460" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I460" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J460" t="s">
         <v>18</v>
@@ -18807,7 +18807,7 @@
         <v>29</v>
       </c>
       <c r="F461" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G461" t="s">
         <v>158</v>
@@ -18816,7 +18816,7 @@
         <v>31</v>
       </c>
       <c r="I461" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J461" t="s">
         <v>101</v>
@@ -18839,7 +18839,7 @@
         <v>758</v>
       </c>
       <c r="E462" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F462" t="s">
         <v>14</v>
@@ -18874,7 +18874,7 @@
         <v>759</v>
       </c>
       <c r="E463" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F463" t="s">
         <v>463</v>
@@ -18909,7 +18909,7 @@
         <v>760</v>
       </c>
       <c r="E464" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F464" t="s">
         <v>641</v>
@@ -18918,10 +18918,10 @@
         <v>468</v>
       </c>
       <c r="H464" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I464" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J464" t="s">
         <v>101</v>
@@ -18944,7 +18944,7 @@
         <v>761</v>
       </c>
       <c r="E465" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F465" t="s">
         <v>641</v>
@@ -18973,13 +18973,13 @@
         <v>750</v>
       </c>
       <c r="C466" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D466" t="s">
         <v>762</v>
       </c>
       <c r="E466" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F466" t="s">
         <v>615</v>
@@ -18991,7 +18991,7 @@
         <v>474</v>
       </c>
       <c r="I466" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J466" t="s">
         <v>101</v>
@@ -19014,7 +19014,7 @@
         <v>763</v>
       </c>
       <c r="E467" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F467" t="s">
         <v>660</v>
@@ -19049,7 +19049,7 @@
         <v>764</v>
       </c>
       <c r="E468" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F468" t="s">
         <v>660</v>
@@ -19061,7 +19061,7 @@
         <v>113</v>
       </c>
       <c r="I468" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J468" t="s">
         <v>101</v>
@@ -19154,7 +19154,7 @@
         <v>767</v>
       </c>
       <c r="E471" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F471" t="s">
         <v>768</v>
@@ -19183,7 +19183,7 @@
         <v>750</v>
       </c>
       <c r="C472" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D472" t="s">
         <v>769</v>
@@ -19224,7 +19224,7 @@
         <v>770</v>
       </c>
       <c r="E473" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F473" t="s">
         <v>660</v>
@@ -19236,7 +19236,7 @@
         <v>503</v>
       </c>
       <c r="I473" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J473" t="s">
         <v>18</v>
@@ -19259,7 +19259,7 @@
         <v>771</v>
       </c>
       <c r="E474" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F474" t="s">
         <v>460</v>
@@ -19271,7 +19271,7 @@
         <v>106</v>
       </c>
       <c r="I474" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J474" t="s">
         <v>101</v>
@@ -19288,13 +19288,13 @@
         <v>750</v>
       </c>
       <c r="C475" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D475" t="s">
         <v>772</v>
       </c>
       <c r="E475" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F475" t="s">
         <v>641</v>
@@ -19323,7 +19323,7 @@
         <v>750</v>
       </c>
       <c r="C476" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D476" t="s">
         <v>773</v>
@@ -19338,7 +19338,7 @@
         <v>602</v>
       </c>
       <c r="H476" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I476" t="s">
         <v>32</v>
@@ -19364,7 +19364,7 @@
         <v>775</v>
       </c>
       <c r="E477" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F477" t="s">
         <v>14</v>
@@ -19399,7 +19399,7 @@
         <v>776</v>
       </c>
       <c r="E478" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="F478" t="s">
         <v>14</v>
@@ -19434,7 +19434,7 @@
         <v>777</v>
       </c>
       <c r="E479" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F479" t="s">
         <v>161</v>
@@ -19469,10 +19469,10 @@
         <v>778</v>
       </c>
       <c r="E480" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F480" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G480" t="s">
         <v>105</v>
@@ -19481,7 +19481,7 @@
         <v>244</v>
       </c>
       <c r="I480" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J480" t="s">
         <v>301</v>
@@ -19533,13 +19533,13 @@
         <v>774</v>
       </c>
       <c r="C482" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D482" t="s">
         <v>780</v>
       </c>
       <c r="E482" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F482" t="s">
         <v>14</v>
@@ -19574,7 +19574,7 @@
         <v>781</v>
       </c>
       <c r="E483" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F483" t="s">
         <v>14</v>
@@ -19609,7 +19609,7 @@
         <v>782</v>
       </c>
       <c r="E484" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F484" t="s">
         <v>14</v>
@@ -19621,7 +19621,7 @@
         <v>87</v>
       </c>
       <c r="I484" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J484" t="s">
         <v>101</v>
@@ -19638,13 +19638,13 @@
         <v>774</v>
       </c>
       <c r="C485" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D485" t="s">
         <v>783</v>
       </c>
       <c r="E485" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F485" t="s">
         <v>14</v>
@@ -19714,7 +19714,7 @@
         <v>785</v>
       </c>
       <c r="E487" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F487" t="s">
         <v>14</v>
@@ -19761,7 +19761,7 @@
         <v>532</v>
       </c>
       <c r="I488" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J488" t="s">
         <v>18</v>
@@ -19778,7 +19778,7 @@
         <v>786</v>
       </c>
       <c r="C489" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D489" t="s">
         <v>788</v>
@@ -19819,7 +19819,7 @@
         <v>789</v>
       </c>
       <c r="E490" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F490" t="s">
         <v>14</v>
@@ -19831,7 +19831,7 @@
         <v>110</v>
       </c>
       <c r="I490" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J490" t="s">
         <v>18</v>
@@ -19854,7 +19854,7 @@
         <v>790</v>
       </c>
       <c r="E491" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F491" t="s">
         <v>14</v>
@@ -19895,7 +19895,7 @@
         <v>14</v>
       </c>
       <c r="G492" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H492" t="s">
         <v>220</v>
@@ -19924,7 +19924,7 @@
         <v>794</v>
       </c>
       <c r="E493" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F493" t="s">
         <v>795</v>
@@ -19959,7 +19959,7 @@
         <v>796</v>
       </c>
       <c r="E494" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F494" t="s">
         <v>14</v>
@@ -19968,7 +19968,7 @@
         <v>87</v>
       </c>
       <c r="H494" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I494" t="s">
         <v>131</v>
@@ -19994,19 +19994,19 @@
         <v>797</v>
       </c>
       <c r="E495" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F495" t="s">
         <v>14</v>
       </c>
       <c r="G495" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H495" t="s">
         <v>70</v>
       </c>
       <c r="I495" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J495" t="s">
         <v>18</v>
@@ -20029,7 +20029,7 @@
         <v>798</v>
       </c>
       <c r="E496" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F496" t="s">
         <v>799</v>
@@ -20041,7 +20041,7 @@
         <v>249</v>
       </c>
       <c r="I496" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J496" t="s">
         <v>18</v>
@@ -20064,7 +20064,7 @@
         <v>800</v>
       </c>
       <c r="E497" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F497" t="s">
         <v>795</v>
@@ -20093,13 +20093,13 @@
         <v>786</v>
       </c>
       <c r="C498" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D498" t="s">
         <v>801</v>
       </c>
       <c r="E498" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F498" t="s">
         <v>317</v>
@@ -20111,7 +20111,7 @@
         <v>314</v>
       </c>
       <c r="I498" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J498" t="s">
         <v>18</v>
@@ -20128,7 +20128,7 @@
         <v>786</v>
       </c>
       <c r="C499" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D499" t="s">
         <v>802</v>
@@ -20146,7 +20146,7 @@
         <v>804</v>
       </c>
       <c r="I499" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J499" t="s">
         <v>18</v>
@@ -20169,7 +20169,7 @@
         <v>805</v>
       </c>
       <c r="E500" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F500" t="s">
         <v>14</v>
@@ -20204,7 +20204,7 @@
         <v>806</v>
       </c>
       <c r="E501" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F501" t="s">
         <v>799</v>
@@ -20239,7 +20239,7 @@
         <v>807</v>
       </c>
       <c r="E502" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F502" t="s">
         <v>466</v>
@@ -20251,7 +20251,7 @@
         <v>69</v>
       </c>
       <c r="I502" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J502" t="s">
         <v>273</v>
@@ -20274,7 +20274,7 @@
         <v>808</v>
       </c>
       <c r="E503" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F503" t="s">
         <v>14</v>
@@ -20286,7 +20286,7 @@
         <v>309</v>
       </c>
       <c r="I503" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J503" t="s">
         <v>77</v>
@@ -20353,7 +20353,7 @@
         <v>413</v>
       </c>
       <c r="H505" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I505" t="s">
         <v>71</v>
@@ -20373,13 +20373,13 @@
         <v>786</v>
       </c>
       <c r="C506" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D506" t="s">
         <v>811</v>
       </c>
       <c r="E506" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F506" t="s">
         <v>799</v>
@@ -20391,7 +20391,7 @@
         <v>120</v>
       </c>
       <c r="I506" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J506" t="s">
         <v>273</v>
@@ -20426,7 +20426,7 @@
         <v>210</v>
       </c>
       <c r="I507" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J507" t="s">
         <v>18</v>
@@ -20449,13 +20449,13 @@
         <v>813</v>
       </c>
       <c r="E508" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F508" t="s">
         <v>14</v>
       </c>
       <c r="G508" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H508" t="s">
         <v>15</v>
@@ -20484,7 +20484,7 @@
         <v>814</v>
       </c>
       <c r="E509" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F509" t="s">
         <v>14</v>
@@ -20548,7 +20548,7 @@
         <v>786</v>
       </c>
       <c r="C511" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D511" t="s">
         <v>816</v>
@@ -20595,7 +20595,7 @@
         <v>327</v>
       </c>
       <c r="G512" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H512" t="s">
         <v>356</v>
@@ -20659,7 +20659,7 @@
         <v>821</v>
       </c>
       <c r="E514" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F514" t="s">
         <v>14</v>
@@ -20729,19 +20729,19 @@
         <v>823</v>
       </c>
       <c r="E516" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F516" t="s">
         <v>74</v>
       </c>
       <c r="G516" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H516" t="s">
         <v>158</v>
       </c>
       <c r="I516" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J516" t="s">
         <v>18</v>
@@ -20764,7 +20764,7 @@
         <v>824</v>
       </c>
       <c r="E517" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F517" t="s">
         <v>14</v>
@@ -20828,13 +20828,13 @@
         <v>817</v>
       </c>
       <c r="C519" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D519" t="s">
         <v>826</v>
       </c>
       <c r="E519" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F519" t="s">
         <v>14</v>
@@ -20869,7 +20869,7 @@
         <v>827</v>
       </c>
       <c r="E520" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F520" t="s">
         <v>14</v>
@@ -20904,7 +20904,7 @@
         <v>828</v>
       </c>
       <c r="E521" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F521" t="s">
         <v>14</v>
@@ -20980,7 +20980,7 @@
         <v>14</v>
       </c>
       <c r="G523" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H523" t="s">
         <v>356</v>
@@ -21009,10 +21009,10 @@
         <v>831</v>
       </c>
       <c r="E524" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F524" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G524" t="s">
         <v>121</v>
@@ -21021,7 +21021,7 @@
         <v>163</v>
       </c>
       <c r="I524" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J524" t="s">
         <v>101</v>
@@ -21056,7 +21056,7 @@
         <v>183</v>
       </c>
       <c r="I525" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J525" t="s">
         <v>77</v>
@@ -21079,7 +21079,7 @@
         <v>833</v>
       </c>
       <c r="E526" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F526" t="s">
         <v>90</v>
@@ -21091,7 +21091,7 @@
         <v>556</v>
       </c>
       <c r="I526" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J526" t="s">
         <v>18</v>
@@ -21114,7 +21114,7 @@
         <v>834</v>
       </c>
       <c r="E527" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F527" t="s">
         <v>74</v>
@@ -21149,7 +21149,7 @@
         <v>836</v>
       </c>
       <c r="E528" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F528" t="s">
         <v>14</v>
@@ -21161,7 +21161,7 @@
         <v>228</v>
       </c>
       <c r="I528" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J528" t="s">
         <v>273</v>
@@ -21184,7 +21184,7 @@
         <v>837</v>
       </c>
       <c r="E529" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F529" t="s">
         <v>14</v>
@@ -21219,7 +21219,7 @@
         <v>838</v>
       </c>
       <c r="E530" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F530" t="s">
         <v>14</v>
@@ -21231,7 +21231,7 @@
         <v>158</v>
       </c>
       <c r="I530" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J530" t="s">
         <v>301</v>
@@ -21254,7 +21254,7 @@
         <v>839</v>
       </c>
       <c r="E531" t="s">
-        <v>537</v>
+        <v>154</v>
       </c>
       <c r="F531" t="s">
         <v>14</v>
@@ -21266,7 +21266,7 @@
         <v>168</v>
       </c>
       <c r="I531" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J531" t="s">
         <v>18</v>
@@ -21289,7 +21289,7 @@
         <v>840</v>
       </c>
       <c r="E532" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F532" t="s">
         <v>14</v>
@@ -21388,7 +21388,7 @@
         <v>835</v>
       </c>
       <c r="C535" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D535" t="s">
         <v>843</v>
@@ -21406,7 +21406,7 @@
         <v>134</v>
       </c>
       <c r="I535" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J535" t="s">
         <v>18</v>
@@ -21441,7 +21441,7 @@
         <v>249</v>
       </c>
       <c r="I536" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J536" t="s">
         <v>77</v>
@@ -21458,7 +21458,7 @@
         <v>835</v>
       </c>
       <c r="C537" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D537" t="s">
         <v>845</v>
@@ -21499,7 +21499,7 @@
         <v>846</v>
       </c>
       <c r="E538" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F538" t="s">
         <v>14</v>
@@ -21534,7 +21534,7 @@
         <v>847</v>
       </c>
       <c r="E539" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F539" t="s">
         <v>14</v>
@@ -21575,7 +21575,7 @@
         <v>14</v>
       </c>
       <c r="G540" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H540" t="s">
         <v>849</v>
@@ -21604,7 +21604,7 @@
         <v>850</v>
       </c>
       <c r="E541" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F541" t="s">
         <v>14</v>
@@ -21616,7 +21616,7 @@
         <v>100</v>
       </c>
       <c r="I541" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J541" t="s">
         <v>18</v>
@@ -21639,7 +21639,7 @@
         <v>851</v>
       </c>
       <c r="E542" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F542" t="s">
         <v>14</v>
@@ -21674,7 +21674,7 @@
         <v>852</v>
       </c>
       <c r="E543" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F543" t="s">
         <v>14</v>
@@ -21703,7 +21703,7 @@
         <v>835</v>
       </c>
       <c r="C544" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D544" t="s">
         <v>853</v>
@@ -21744,7 +21744,7 @@
         <v>855</v>
       </c>
       <c r="E545" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F545" t="s">
         <v>14</v>
@@ -21779,7 +21779,7 @@
         <v>856</v>
       </c>
       <c r="E546" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F546" t="s">
         <v>615</v>
@@ -21814,7 +21814,7 @@
         <v>857</v>
       </c>
       <c r="E547" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F547" t="s">
         <v>14</v>
@@ -21826,7 +21826,7 @@
         <v>556</v>
       </c>
       <c r="I547" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J547" t="s">
         <v>18</v>
@@ -21861,7 +21861,7 @@
         <v>95</v>
       </c>
       <c r="I548" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J548" t="s">
         <v>273</v>
@@ -21884,7 +21884,7 @@
         <v>859</v>
       </c>
       <c r="E549" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F549" t="s">
         <v>14</v>
@@ -21913,13 +21913,13 @@
         <v>854</v>
       </c>
       <c r="C550" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D550" t="s">
         <v>860</v>
       </c>
       <c r="E550" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F550" t="s">
         <v>14</v>
@@ -21954,7 +21954,7 @@
         <v>862</v>
       </c>
       <c r="E551" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F551" t="s">
         <v>14</v>
@@ -21963,10 +21963,10 @@
         <v>474</v>
       </c>
       <c r="H551" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I551" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J551" t="s">
         <v>77</v>
@@ -21983,13 +21983,13 @@
         <v>863</v>
       </c>
       <c r="C552" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D552" t="s">
         <v>864</v>
       </c>
       <c r="E552" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F552" t="s">
         <v>14</v>
@@ -22024,7 +22024,7 @@
         <v>865</v>
       </c>
       <c r="E553" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F553" t="s">
         <v>335</v>
@@ -22033,10 +22033,10 @@
         <v>474</v>
       </c>
       <c r="H553" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I553" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J553" t="s">
         <v>18</v>
@@ -22059,7 +22059,7 @@
         <v>866</v>
       </c>
       <c r="E554" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F554" t="s">
         <v>14</v>
@@ -22068,7 +22068,7 @@
         <v>75</v>
       </c>
       <c r="H554" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I554" t="s">
         <v>17</v>
@@ -22123,13 +22123,13 @@
         <v>863</v>
       </c>
       <c r="C556" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D556" t="s">
         <v>868</v>
       </c>
       <c r="E556" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F556" t="s">
         <v>657</v>
@@ -22141,7 +22141,7 @@
         <v>146</v>
       </c>
       <c r="I556" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J556" t="s">
         <v>18</v>
@@ -22199,7 +22199,7 @@
         <v>870</v>
       </c>
       <c r="E558" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F558" t="s">
         <v>14</v>
@@ -22234,7 +22234,7 @@
         <v>871</v>
       </c>
       <c r="E559" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F559" t="s">
         <v>14</v>
@@ -22269,7 +22269,7 @@
         <v>872</v>
       </c>
       <c r="E560" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F560" t="s">
         <v>14</v>
@@ -22298,7 +22298,7 @@
         <v>863</v>
       </c>
       <c r="C561" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D561" t="s">
         <v>873</v>
@@ -22310,7 +22310,7 @@
         <v>14</v>
       </c>
       <c r="G561" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H561" t="s">
         <v>110</v>
@@ -22339,7 +22339,7 @@
         <v>874</v>
       </c>
       <c r="E562" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F562" t="s">
         <v>534</v>
@@ -22368,13 +22368,13 @@
         <v>863</v>
       </c>
       <c r="C563" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D563" t="s">
         <v>875</v>
       </c>
       <c r="E563" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F563" t="s">
         <v>14</v>
@@ -22383,10 +22383,10 @@
         <v>220</v>
       </c>
       <c r="H563" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I563" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J563" t="s">
         <v>18</v>
